--- a/wskazniki.xlsx
+++ b/wskazniki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\gu-schedule-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INNE\Repo\gu-schedule-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43428838-3D2A-4FCE-8033-F1BD3D9953A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A516548-45F5-4AB7-93FB-9B6C67F922FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5865" windowWidth="28800" windowHeight="15735" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczydło" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
   <si>
     <t>Rodzaj informacji: XII 2018 = 100</t>
   </si>
@@ -377,15 +377,25 @@
   <si>
     <t>Table3</t>
   </si>
+  <si>
+    <t>Kwota</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,14 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="4"/>
@@ -496,8 +498,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,12 +561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,19 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -779,12 +778,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,11 +838,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -835,30 +850,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -866,17 +864,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
@@ -888,6 +892,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,27 +918,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="14" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{908D5E4D-BD62-40A9-A460-7354A5A46A5A}"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1018,52 +1040,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1206,16 +1192,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1252,18 +1238,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1358,16 +1332,52 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1617,12 +1627,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}" name="Table1" displayName="Table1" ref="A5:K53" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}" name="Table1" displayName="Table1" ref="A5:K53" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A5:K53" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{300095C1-C47C-4BA6-832E-102ACFC6EFF4}" name="08.1"/>
     <tableColumn id="5" xr3:uid="{6A2D816B-EE9E-4FFC-B46B-20AB911E5F4D}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{07E1FDD9-4F28-4FC0-BF84-6525B98F8E13}" name="19.2"/>
@@ -1637,13 +1647,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A5:K53" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{E434767A-51B8-41E8-95DE-2E4825648920}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{C9C4993F-8A91-447D-AD69-C6B541B7612A}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{3CE016BE-5225-46A8-A320-C00578ABF1F1}" name="23.5"/>
@@ -1657,13 +1667,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A5:K53" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E0B773C5-950F-41BA-92CC-0D44991105BE}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{59D3EDF2-5718-4538-B830-F92452E69368}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{27B86EFE-9577-4522-A915-BE1F26FADD59}" name="23.5"/>
@@ -1974,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0B08B7-03A0-4E03-B880-77414ED1D5CF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:P77"/>
+  <dimension ref="B2:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,22 +1995,23 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>98</v>
+      <c r="D2" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="3:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="21"/>
-      <c r="D3" s="55"/>
+      <c r="D3" s="34"/>
       <c r="G3" s="21"/>
       <c r="H3" s="20"/>
     </row>
@@ -2013,7 +2024,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="55"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
@@ -2023,10 +2034,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="52">
+        <v>100000</v>
+      </c>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
@@ -2059,14 +2076,21 @@
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="54" t="s">
         <v>88</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>102</v>
       </c>
       <c r="M15">
         <v>147.19999999999999</v>
@@ -2084,32 +2108,32 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="48">
         <v>15</v>
       </c>
       <c r="H16">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="48">
         <v>6</v>
       </c>
       <c r="H17">
@@ -2122,210 +2146,177 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="48">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),4)</f>
+        <v>101.5</v>
+      </c>
+      <c r="I18">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),4)</f>
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="48"/>
+      <c r="H19">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),5)</f>
+        <v>100.7</v>
+      </c>
+      <c r="I19">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),5)</f>
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F20" s="48">
         <v>4</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),6)</f>
-        <v>101.7</v>
-      </c>
-      <c r="I18">
+        <v>101.1</v>
+      </c>
+      <c r="I20">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),6)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="32" t="s">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F21" s="48">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),7)</f>
-        <v>108.5</v>
-      </c>
-      <c r="I19">
+        <v>102</v>
+      </c>
+      <c r="I21">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),7)</f>
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="33" t="s">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F22" s="48">
         <v>9</v>
-      </c>
-      <c r="H20">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>105.8</v>
-      </c>
-      <c r="I20">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="30">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),4)</f>
-        <v>107.4</v>
-      </c>
-      <c r="I21">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),4)</f>
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="27">
-        <v>2</v>
       </c>
       <c r="H22">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>105.8</v>
+        <v>100.3</v>
       </c>
       <c r="I22">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>93</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="D23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="48">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
+        <v>100.3</v>
+      </c>
+      <c r="I23">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F24" s="49">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="35">
-        <f>SUM(F16:F23)</f>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="50">
+        <f>SUM(F16:F24)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="str" cm="1">
-        <f t="array" aca="1" ref="B30:L77" ca="1">INDIRECT(sheetName)</f>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="str" cm="1">
+        <f t="array" aca="1" ref="B31:L78" ca="1">INDIRECT(sheetName)</f>
         <v>2019 I</v>
       </c>
-      <c r="C30">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f ca="1"/>
-        <v>107.4</v>
-      </c>
-      <c r="F30">
-        <f ca="1"/>
-        <v>109.1</v>
-      </c>
-      <c r="G30">
-        <f ca="1"/>
-        <v>101.7</v>
-      </c>
-      <c r="H30">
-        <f ca="1"/>
-        <v>108.5</v>
-      </c>
-      <c r="I30">
-        <f ca="1"/>
-        <v>105.8</v>
-      </c>
-      <c r="J30">
-        <f ca="1"/>
-        <v>95.5</v>
-      </c>
-      <c r="K30">
-        <f ca="1"/>
-        <v>109</v>
-      </c>
-      <c r="L30">
+      <c r="C31">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f ca="1"/>
+        <v>101.5</v>
+      </c>
+      <c r="F31">
         <f ca="1"/>
         <v>100.7</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
-        <f ca="1"/>
-        <v>2019 II</v>
-      </c>
-      <c r="C31">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f ca="1"/>
-        <v>110.4</v>
-      </c>
-      <c r="F31">
-        <f ca="1"/>
-        <v>109.5</v>
-      </c>
       <c r="G31">
         <f ca="1"/>
-        <v>111.7</v>
+        <v>101.1</v>
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>109.2</v>
+        <v>102</v>
       </c>
       <c r="I31">
         <f ca="1"/>
-        <v>101.7</v>
+        <v>100.3</v>
       </c>
       <c r="J31">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>98.6</v>
       </c>
       <c r="K31">
         <f ca="1"/>
-        <v>105.8</v>
+        <v>89.7</v>
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f ca="1"/>
-        <v>2019 III</v>
+        <v>2019 II</v>
       </c>
       <c r="C32">
         <f ca="1"/>
@@ -2337,41 +2328,41 @@
       </c>
       <c r="E32">
         <f ca="1"/>
-        <v>109.5</v>
+        <v>102.1</v>
       </c>
       <c r="F32">
         <f ca="1"/>
-        <v>109.3</v>
+        <v>99.6</v>
       </c>
       <c r="G32">
         <f ca="1"/>
-        <v>112</v>
+        <v>105.8</v>
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>108.3</v>
+        <v>100.8</v>
       </c>
       <c r="I32">
         <f ca="1"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="J32">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>105.4</v>
       </c>
       <c r="K32">
         <f ca="1"/>
-        <v>99</v>
+        <v>98.4</v>
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>101.7</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f ca="1"/>
-        <v>2019 IV</v>
+        <v>2019 III</v>
       </c>
       <c r="C33">
         <f ca="1"/>
@@ -2383,41 +2374,41 @@
       </c>
       <c r="E33">
         <f ca="1"/>
-        <v>109.6</v>
+        <v>100.4</v>
       </c>
       <c r="F33">
         <f ca="1"/>
-        <v>108.6</v>
+        <v>99.4</v>
       </c>
       <c r="G33">
         <f ca="1"/>
-        <v>111.4</v>
+        <v>102.2</v>
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>109.4</v>
+        <v>101.7</v>
       </c>
       <c r="I33">
         <f ca="1"/>
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="J33">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>103.3</v>
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>102.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f ca="1"/>
-        <v>2019 V</v>
+        <v>2019 IV</v>
       </c>
       <c r="C34">
         <f ca="1"/>
@@ -2429,41 +2420,41 @@
       </c>
       <c r="E34">
         <f ca="1"/>
-        <v>108.6</v>
+        <v>101.1</v>
       </c>
       <c r="F34">
         <f ca="1"/>
-        <v>111.3</v>
+        <v>99.6</v>
       </c>
       <c r="G34">
         <f ca="1"/>
-        <v>102.8</v>
+        <v>103.8</v>
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>109.8</v>
+        <v>102</v>
       </c>
       <c r="I34">
         <f ca="1"/>
-        <v>97.6</v>
+        <v>100.2</v>
       </c>
       <c r="J34">
         <f ca="1"/>
-        <v>95.9</v>
+        <v>99.9</v>
       </c>
       <c r="K34">
         <f ca="1"/>
-        <v>110.6</v>
+        <v>105.3</v>
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f ca="1"/>
-        <v>2019 VI</v>
+        <v>2019 V</v>
       </c>
       <c r="C35">
         <f ca="1"/>
@@ -2475,41 +2466,41 @@
       </c>
       <c r="E35">
         <f ca="1"/>
-        <v>107.4</v>
+        <v>100.8</v>
       </c>
       <c r="F35">
         <f ca="1"/>
-        <v>108.9</v>
+        <v>101.2</v>
       </c>
       <c r="G35">
         <f ca="1"/>
-        <v>96.6</v>
+        <v>100.5</v>
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>109.1</v>
+        <v>100.7</v>
       </c>
       <c r="I35">
         <f ca="1"/>
-        <v>97.9</v>
+        <v>100.1</v>
       </c>
       <c r="J35">
         <f ca="1"/>
-        <v>91.5</v>
+        <v>96</v>
       </c>
       <c r="K35">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>106.5</v>
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>102.6</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f ca="1"/>
-        <v>2019 VII</v>
+        <v>2019 VI</v>
       </c>
       <c r="C36">
         <f ca="1"/>
@@ -2521,41 +2512,41 @@
       </c>
       <c r="E36">
         <f ca="1"/>
-        <v>107</v>
+        <v>99.6</v>
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>106.7</v>
+        <v>99.3</v>
       </c>
       <c r="G36">
         <f ca="1"/>
-        <v>97.9</v>
+        <v>94.2</v>
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>108.7</v>
+        <v>100.1</v>
       </c>
       <c r="I36">
         <f ca="1"/>
-        <v>96.6</v>
+        <v>99.9</v>
       </c>
       <c r="J36">
         <f ca="1"/>
-        <v>96.8</v>
+        <v>98.2</v>
       </c>
       <c r="K36">
         <f ca="1"/>
-        <v>105.5</v>
+        <v>96.2</v>
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>102.9</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f ca="1"/>
-        <v>2019 VIII</v>
+        <v>2019 VII</v>
       </c>
       <c r="C37">
         <f ca="1"/>
@@ -2567,41 +2558,41 @@
       </c>
       <c r="E37">
         <f ca="1"/>
-        <v>107.8</v>
+        <v>100.2</v>
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>106.8</v>
+        <v>101.5</v>
       </c>
       <c r="G37">
         <f ca="1"/>
-        <v>97.4</v>
+        <v>102</v>
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>108.5</v>
+        <v>100.1</v>
       </c>
       <c r="I37">
         <f ca="1"/>
-        <v>97.2</v>
+        <v>98.5</v>
       </c>
       <c r="J37">
         <f ca="1"/>
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="K37">
         <f ca="1"/>
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>102.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f ca="1"/>
-        <v>2019 IX</v>
+        <v>2019 VIII</v>
       </c>
       <c r="C38">
         <f ca="1"/>
@@ -2613,41 +2604,41 @@
       </c>
       <c r="E38">
         <f ca="1"/>
-        <v>108.4</v>
+        <v>100.5</v>
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>107.9</v>
+        <v>100.8</v>
       </c>
       <c r="G38">
         <f ca="1"/>
-        <v>97.8</v>
+        <v>99.7</v>
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>108.8</v>
+        <v>100.2</v>
       </c>
       <c r="I38">
         <f ca="1"/>
-        <v>95.5</v>
+        <v>101</v>
       </c>
       <c r="J38">
         <f ca="1"/>
-        <v>104.9</v>
+        <v>101.2</v>
       </c>
       <c r="K38">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>103.3</v>
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>102.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f ca="1"/>
-        <v>2019 X</v>
+        <v>2019 IX</v>
       </c>
       <c r="C39">
         <f ca="1"/>
@@ -2659,41 +2650,41 @@
       </c>
       <c r="E39">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>100.3</v>
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>106</v>
+        <v>100.2</v>
       </c>
       <c r="G39">
         <f ca="1"/>
-        <v>91.2</v>
+        <v>102.5</v>
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>109</v>
+        <v>100.1</v>
       </c>
       <c r="I39">
         <f ca="1"/>
-        <v>91.5</v>
+        <v>99.3</v>
       </c>
       <c r="J39">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>102.6</v>
       </c>
       <c r="K39">
         <f ca="1"/>
-        <v>105</v>
+        <v>96.2</v>
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f ca="1"/>
-        <v>2019 XI</v>
+        <v>2019 X</v>
       </c>
       <c r="C40">
         <f ca="1"/>
@@ -2705,41 +2696,41 @@
       </c>
       <c r="E40">
         <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <f ca="1"/>
+        <v>100.1</v>
+      </c>
+      <c r="G40">
+        <f ca="1"/>
+        <v>97</v>
+      </c>
+      <c r="H40">
+        <f ca="1"/>
+        <v>100.2</v>
+      </c>
+      <c r="I40">
+        <f ca="1"/>
+        <v>96.4</v>
+      </c>
+      <c r="J40">
+        <f ca="1"/>
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <f ca="1"/>
         <v>107.6</v>
       </c>
-      <c r="F40">
-        <f ca="1"/>
-        <v>103.5</v>
-      </c>
-      <c r="G40">
-        <f ca="1"/>
-        <v>96.8</v>
-      </c>
-      <c r="H40">
-        <f ca="1"/>
-        <v>109.4</v>
-      </c>
-      <c r="I40">
-        <f ca="1"/>
-        <v>88.2</v>
-      </c>
-      <c r="J40">
-        <f ca="1"/>
-        <v>100.3</v>
-      </c>
-      <c r="K40">
-        <f ca="1"/>
-        <v>103.6</v>
-      </c>
       <c r="L40">
         <f ca="1"/>
-        <v>102.6</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f ca="1"/>
-        <v>2019 XII</v>
+        <v>2019 XI</v>
       </c>
       <c r="C41">
         <f ca="1"/>
@@ -2751,41 +2742,41 @@
       </c>
       <c r="E41">
         <f ca="1"/>
-        <v>107.4</v>
+        <v>100.6</v>
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>103</v>
+        <v>100.5</v>
       </c>
       <c r="G41">
         <f ca="1"/>
-        <v>110</v>
+        <v>99.2</v>
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>108.6</v>
+        <v>100.3</v>
       </c>
       <c r="I41">
         <f ca="1"/>
-        <v>87.1</v>
+        <v>96.3</v>
       </c>
       <c r="J41">
         <f ca="1"/>
-        <v>102.2</v>
+        <v>99.6</v>
       </c>
       <c r="K41">
         <f ca="1"/>
-        <v>105.5</v>
+        <v>94.3</v>
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f ca="1"/>
-        <v>2020 I</v>
+        <v>2019 XII</v>
       </c>
       <c r="C42">
         <f ca="1"/>
@@ -2797,27 +2788,27 @@
       </c>
       <c r="E42">
         <f ca="1"/>
-        <v>106.6</v>
+        <v>100.3</v>
       </c>
       <c r="F42">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>100.1</v>
       </c>
       <c r="G42">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>101.9</v>
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>107.5</v>
+        <v>100.3</v>
       </c>
       <c r="I42">
         <f ca="1"/>
-        <v>87.8</v>
+        <v>97</v>
       </c>
       <c r="J42">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <f ca="1"/>
@@ -2825,13 +2816,13 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f ca="1"/>
-        <v>2020 II</v>
+        <v>2020 I</v>
       </c>
       <c r="C43">
         <f ca="1"/>
@@ -2843,45 +2834,45 @@
       </c>
       <c r="E43">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>100.7</v>
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>104.4</v>
+        <v>102</v>
       </c>
       <c r="G43">
         <f ca="1"/>
-        <v>96.6</v>
+        <v>99.1</v>
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>100.8</v>
       </c>
       <c r="I43">
         <f ca="1"/>
-        <v>88.5</v>
+        <v>101.2</v>
       </c>
       <c r="J43">
         <f ca="1"/>
-        <v>97.3</v>
+        <v>99.8</v>
       </c>
       <c r="K43">
         <f ca="1"/>
-        <v>107.7</v>
+        <v>88.7</v>
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>104.7</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f ca="1"/>
-        <v>2020 III</v>
+        <v>2020 II</v>
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f ca="1"/>
@@ -2889,41 +2880,41 @@
       </c>
       <c r="E44">
         <f ca="1"/>
-        <v>105.8</v>
+        <v>99.8</v>
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>105.2</v>
+        <v>99.8</v>
       </c>
       <c r="G44">
         <f ca="1"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>108.5</v>
+        <v>100.8</v>
       </c>
       <c r="I44">
         <f ca="1"/>
-        <v>93</v>
+        <v>99.2</v>
       </c>
       <c r="J44">
         <f ca="1"/>
-        <v>92.2</v>
+        <v>99.1</v>
       </c>
       <c r="K44">
         <f ca="1"/>
-        <v>109.4</v>
+        <v>101.6</v>
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>104.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f ca="1"/>
-        <v>2020 IV</v>
+        <v>2020 III</v>
       </c>
       <c r="C45">
         <f ca="1"/>
@@ -2935,41 +2926,41 @@
       </c>
       <c r="E45">
         <f ca="1"/>
-        <v>105.4</v>
+        <v>101.9</v>
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>106.3</v>
+        <v>100.1</v>
       </c>
       <c r="G45">
         <f ca="1"/>
-        <v>66.3</v>
+        <v>85.7</v>
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>108.2</v>
+        <v>102.5</v>
       </c>
       <c r="I45">
         <f ca="1"/>
-        <v>94</v>
+        <v>104.1</v>
       </c>
       <c r="J45">
         <f ca="1"/>
-        <v>94.6</v>
+        <v>94.9</v>
       </c>
       <c r="K45">
         <f ca="1"/>
-        <v>111</v>
+        <v>104.9</v>
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f ca="1"/>
-        <v>2020 V</v>
+        <v>2020 IV</v>
       </c>
       <c r="C46">
         <f ca="1"/>
@@ -2981,41 +2972,41 @@
       </c>
       <c r="E46">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>100.7</v>
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>105.2</v>
+        <v>100.6</v>
       </c>
       <c r="G46">
         <f ca="1"/>
-        <v>68.3</v>
+        <v>85</v>
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>108.1</v>
+        <v>101.7</v>
       </c>
       <c r="I46">
         <f ca="1"/>
-        <v>92.4</v>
+        <v>101.3</v>
       </c>
       <c r="J46">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>102.5</v>
       </c>
       <c r="K46">
         <f ca="1"/>
-        <v>95.2</v>
+        <v>106.8</v>
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>102.9</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f ca="1"/>
-        <v>2020 VI</v>
+        <v>2020 V</v>
       </c>
       <c r="C47">
         <f ca="1"/>
@@ -3027,41 +3018,41 @@
       </c>
       <c r="E47">
         <f ca="1"/>
-        <v>104.8</v>
+        <v>99.7</v>
       </c>
       <c r="F47">
         <f ca="1"/>
-        <v>106.5</v>
+        <v>100.2</v>
       </c>
       <c r="G47">
         <f ca="1"/>
-        <v>81.8</v>
+        <v>103.6</v>
       </c>
       <c r="H47">
         <f ca="1"/>
-        <v>107.4</v>
+        <v>100.7</v>
       </c>
       <c r="I47">
         <f ca="1"/>
-        <v>89.1</v>
+        <v>98.3</v>
       </c>
       <c r="J47">
         <f ca="1"/>
-        <v>105.4</v>
+        <v>102.4</v>
       </c>
       <c r="K47">
         <f ca="1"/>
-        <v>103.9</v>
+        <v>91.3</v>
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f ca="1"/>
-        <v>2020 VII</v>
+        <v>2020 VI</v>
       </c>
       <c r="C48">
         <f ca="1"/>
@@ -3073,41 +3064,41 @@
       </c>
       <c r="E48">
         <f ca="1"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>104.9</v>
+        <v>100.5</v>
       </c>
       <c r="G48">
         <f ca="1"/>
-        <v>83.3</v>
+        <v>112.7</v>
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>107.2</v>
+        <v>99.4</v>
       </c>
       <c r="I48">
         <f ca="1"/>
-        <v>89.3</v>
+        <v>96.3</v>
       </c>
       <c r="J48">
         <f ca="1"/>
-        <v>111.1</v>
+        <v>102.6</v>
       </c>
       <c r="K48">
         <f ca="1"/>
-        <v>103.2</v>
+        <v>105</v>
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>103</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f ca="1"/>
-        <v>2020 VIII</v>
+        <v>2020 VII</v>
       </c>
       <c r="C49">
         <f ca="1"/>
@@ -3119,41 +3110,41 @@
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>99.5</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>103.8</v>
+        <v>99.9</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>82.8</v>
+        <v>103.9</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>107.2</v>
+        <v>99.9</v>
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>88</v>
+        <v>98.7</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>108.8</v>
+        <v>106.5</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>101.3</v>
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>102.9</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f ca="1"/>
-        <v>2020 IX</v>
+        <v>2020 VIII</v>
       </c>
       <c r="C50">
         <f ca="1"/>
@@ -3165,27 +3156,27 @@
       </c>
       <c r="E50">
         <f ca="1"/>
-        <v>104</v>
+        <v>99.9</v>
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>99.8</v>
       </c>
       <c r="G50">
         <f ca="1"/>
-        <v>78</v>
+        <v>99.2</v>
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>107.4</v>
+        <v>100.2</v>
       </c>
       <c r="I50">
         <f ca="1"/>
-        <v>90.7</v>
+        <v>99.6</v>
       </c>
       <c r="J50">
         <f ca="1"/>
-        <v>110.1</v>
+        <v>99</v>
       </c>
       <c r="K50">
         <f ca="1"/>
@@ -3193,13 +3184,13 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>103.2</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f ca="1"/>
-        <v>2020 X</v>
+        <v>2020 IX</v>
       </c>
       <c r="C51">
         <f ca="1"/>
@@ -3211,41 +3202,41 @@
       </c>
       <c r="E51">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>99.7</v>
       </c>
       <c r="G51">
         <f ca="1"/>
-        <v>82.2</v>
+        <v>96.6</v>
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>107.1</v>
+        <v>100.3</v>
       </c>
       <c r="I51">
         <f ca="1"/>
-        <v>96</v>
+        <v>102.4</v>
       </c>
       <c r="J51">
         <f ca="1"/>
-        <v>112.1</v>
+        <v>103.8</v>
       </c>
       <c r="K51">
         <f ca="1"/>
-        <v>106.4</v>
+        <v>96.3</v>
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>103.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f ca="1"/>
-        <v>2020 XI</v>
+        <v>2020 X</v>
       </c>
       <c r="C52">
         <f ca="1"/>
@@ -3257,41 +3248,41 @@
       </c>
       <c r="E52">
         <f ca="1"/>
-        <v>102.8</v>
+        <v>99.6</v>
       </c>
       <c r="F52">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>100.7</v>
       </c>
       <c r="G52">
         <f ca="1"/>
-        <v>83.6</v>
+        <v>102.2</v>
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>106.3</v>
+        <v>100</v>
       </c>
       <c r="I52">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>101.9</v>
       </c>
       <c r="J52">
         <f ca="1"/>
-        <v>114.9</v>
+        <v>100.9</v>
       </c>
       <c r="K52">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>110.6</v>
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>103</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f ca="1"/>
-        <v>2020 XII</v>
+        <v>2020 XI</v>
       </c>
       <c r="C53">
         <f ca="1"/>
@@ -3303,41 +3294,41 @@
       </c>
       <c r="E53">
         <f ca="1"/>
-        <v>103</v>
+        <v>99.8</v>
       </c>
       <c r="F53">
         <f ca="1"/>
-        <v>103.9</v>
+        <v>99.9</v>
       </c>
       <c r="G53">
         <f ca="1"/>
-        <v>87.3</v>
+        <v>100.9</v>
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>105.7</v>
+        <v>99.6</v>
       </c>
       <c r="I53">
         <f ca="1"/>
-        <v>105.5</v>
+        <v>101.1</v>
       </c>
       <c r="J53">
         <f ca="1"/>
-        <v>117.4</v>
+        <v>102</v>
       </c>
       <c r="K53">
         <f ca="1"/>
-        <v>106.3</v>
+        <v>90.7</v>
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f ca="1"/>
-        <v>2021 I</v>
+        <v>2020 XII</v>
       </c>
       <c r="C54">
         <f ca="1"/>
@@ -3349,41 +3340,41 @@
       </c>
       <c r="E54">
         <f ca="1"/>
-        <v>102.1</v>
+        <v>100.5</v>
       </c>
       <c r="F54">
         <f ca="1"/>
-        <v>102.8</v>
+        <v>100.7</v>
       </c>
       <c r="G54">
         <f ca="1"/>
-        <v>93.5</v>
+        <v>106.3</v>
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>106.2</v>
+        <v>99.7</v>
       </c>
       <c r="I54">
         <f ca="1"/>
-        <v>109.1</v>
+        <v>101.5</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>123.6</v>
+        <v>103.1</v>
       </c>
       <c r="K54">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>108.3</v>
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>102.6</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f ca="1"/>
-        <v>2021 II</v>
+        <v>2021 I</v>
       </c>
       <c r="C55">
         <f ca="1"/>
@@ -3395,41 +3386,41 @@
       </c>
       <c r="E55">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>99.8</v>
       </c>
       <c r="F55">
         <f ca="1"/>
-        <v>104.2</v>
+        <v>100.7</v>
       </c>
       <c r="G55">
         <f ca="1"/>
-        <v>105.2</v>
+        <v>106.2</v>
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>105.6</v>
+        <v>101.2</v>
       </c>
       <c r="I55">
         <f ca="1"/>
-        <v>118</v>
+        <v>104.7</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>128.80000000000001</v>
+        <v>105.1</v>
       </c>
       <c r="K55">
         <f ca="1"/>
-        <v>101.1</v>
+        <v>86.3</v>
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f ca="1"/>
-        <v>2021 III</v>
+        <v>2021 II</v>
       </c>
       <c r="C56">
         <f ca="1"/>
@@ -3445,37 +3436,37 @@
       </c>
       <c r="F56">
         <f ca="1"/>
-        <v>103.9</v>
+        <v>101.2</v>
       </c>
       <c r="G56">
         <f ca="1"/>
-        <v>132.80000000000001</v>
+        <v>106.8</v>
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>100.3</v>
       </c>
       <c r="I56">
         <f ca="1"/>
-        <v>119.8</v>
+        <v>107.3</v>
       </c>
       <c r="J56">
         <f ca="1"/>
-        <v>142.80000000000001</v>
+        <v>103.3</v>
       </c>
       <c r="K56">
         <f ca="1"/>
-        <v>105.1</v>
+        <v>99.3</v>
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>103.2</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f ca="1"/>
-        <v>2021 IV</v>
+        <v>2021 III</v>
       </c>
       <c r="C57">
         <f ca="1"/>
@@ -3487,41 +3478,41 @@
       </c>
       <c r="E57">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>99.6</v>
       </c>
       <c r="F57">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>99.8</v>
       </c>
       <c r="G57">
         <f ca="1"/>
-        <v>155.19999999999999</v>
+        <v>108.2</v>
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>100.5</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>123.1</v>
+        <v>105.7</v>
       </c>
       <c r="J57">
         <f ca="1"/>
-        <v>142.19999999999999</v>
+        <v>105.2</v>
       </c>
       <c r="K57">
         <f ca="1"/>
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f ca="1"/>
-        <v>2021 V</v>
+        <v>2021 IV</v>
       </c>
       <c r="C58">
         <f ca="1"/>
@@ -3537,37 +3528,37 @@
       </c>
       <c r="F58">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>100.3</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>153.1</v>
+        <v>99.3</v>
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>103.1</v>
+        <v>101.8</v>
       </c>
       <c r="I58">
         <f ca="1"/>
-        <v>130.4</v>
+        <v>104.1</v>
       </c>
       <c r="J58">
         <f ca="1"/>
-        <v>144.5</v>
+        <v>102.1</v>
       </c>
       <c r="K58">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>111</v>
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>104.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f ca="1"/>
-        <v>2021 VI</v>
+        <v>2021 V</v>
       </c>
       <c r="C59">
         <f ca="1"/>
@@ -3579,41 +3570,41 @@
       </c>
       <c r="E59">
         <f ca="1"/>
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="F59">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>99.9</v>
       </c>
       <c r="G59">
         <f ca="1"/>
-        <v>140.4</v>
+        <v>102.2</v>
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>100.2</v>
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>144.4</v>
+        <v>104.1</v>
       </c>
       <c r="J59">
         <f ca="1"/>
-        <v>136.6</v>
+        <v>104</v>
       </c>
       <c r="K59">
         <f ca="1"/>
-        <v>106.6</v>
+        <v>90</v>
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>104.4</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f ca="1"/>
-        <v>2021 VII</v>
+        <v>2021 VI</v>
       </c>
       <c r="C60">
         <f ca="1"/>
@@ -3625,41 +3616,41 @@
       </c>
       <c r="E60">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>100.4</v>
       </c>
       <c r="F60">
         <f ca="1"/>
-        <v>105.7</v>
+        <v>101.5</v>
       </c>
       <c r="G60">
         <f ca="1"/>
-        <v>141.4</v>
+        <v>103.3</v>
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>99.9</v>
       </c>
       <c r="I60">
         <f ca="1"/>
-        <v>159.4</v>
+        <v>106.7</v>
       </c>
       <c r="J60">
         <f ca="1"/>
-        <v>130.19999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="K60">
         <f ca="1"/>
-        <v>105.5</v>
+        <v>104</v>
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>105</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f ca="1"/>
-        <v>2021 VIII</v>
+        <v>2021 VII</v>
       </c>
       <c r="C61">
         <f ca="1"/>
@@ -3671,41 +3662,41 @@
       </c>
       <c r="E61">
         <f ca="1"/>
-        <v>103.7</v>
+        <v>100.9</v>
       </c>
       <c r="F61">
         <f ca="1"/>
-        <v>106.2</v>
+        <v>101.2</v>
       </c>
       <c r="G61">
         <f ca="1"/>
-        <v>140.19999999999999</v>
+        <v>104.7</v>
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>104.7</v>
+        <v>100.5</v>
       </c>
       <c r="I61">
         <f ca="1"/>
-        <v>171.5</v>
+        <v>108.9</v>
       </c>
       <c r="J61">
         <f ca="1"/>
-        <v>132.1</v>
+        <v>101.4</v>
       </c>
       <c r="K61">
         <f ca="1"/>
-        <v>106.1</v>
+        <v>100.2</v>
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>105.5</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f ca="1"/>
-        <v>2021 IX</v>
+        <v>2021 VIII</v>
       </c>
       <c r="C62">
         <f ca="1"/>
@@ -3717,41 +3708,41 @@
       </c>
       <c r="E62">
         <f ca="1"/>
-        <v>103.8</v>
+        <v>101</v>
       </c>
       <c r="F62">
         <f ca="1"/>
-        <v>108.2</v>
+        <v>100.3</v>
       </c>
       <c r="G62">
         <f ca="1"/>
-        <v>150.9</v>
+        <v>98.3</v>
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>104.6</v>
+        <v>100.6</v>
       </c>
       <c r="I62">
         <f ca="1"/>
-        <v>170.6</v>
+        <v>107.1</v>
       </c>
       <c r="J62">
         <f ca="1"/>
-        <v>126.6</v>
+        <v>100.5</v>
       </c>
       <c r="K62">
         <f ca="1"/>
-        <v>108.7</v>
+        <v>104.1</v>
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>105.9</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f ca="1"/>
-        <v>2021 X</v>
+        <v>2021 IX</v>
       </c>
       <c r="C63">
         <f ca="1"/>
@@ -3763,41 +3754,41 @@
       </c>
       <c r="E63">
         <f ca="1"/>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F63">
         <f ca="1"/>
-        <v>110.4</v>
+        <v>101.6</v>
       </c>
       <c r="G63">
         <f ca="1"/>
-        <v>164.3</v>
+        <v>103.9</v>
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>104.8</v>
+        <v>100.2</v>
       </c>
       <c r="I63">
         <f ca="1"/>
-        <v>165.2</v>
+        <v>101.8</v>
       </c>
       <c r="J63">
         <f ca="1"/>
-        <v>134.5</v>
+        <v>99.5</v>
       </c>
       <c r="K63">
         <f ca="1"/>
-        <v>107</v>
+        <v>98.7</v>
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>106.8</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f ca="1"/>
-        <v>2021 XI</v>
+        <v>2021 X</v>
       </c>
       <c r="C64">
         <f ca="1"/>
@@ -3809,41 +3800,41 @@
       </c>
       <c r="E64">
         <f ca="1"/>
-        <v>105.6</v>
+        <v>100.7</v>
       </c>
       <c r="F64">
         <f ca="1"/>
-        <v>113.2</v>
+        <v>102.8</v>
       </c>
       <c r="G64">
         <f ca="1"/>
-        <v>165.3</v>
+        <v>111.3</v>
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>106</v>
+        <v>100.2</v>
       </c>
       <c r="I64">
         <f ca="1"/>
-        <v>160.80000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J64">
         <f ca="1"/>
-        <v>136.4</v>
+        <v>107.1</v>
       </c>
       <c r="K64">
         <f ca="1"/>
-        <v>110.3</v>
+        <v>108.9</v>
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>107.8</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f ca="1"/>
-        <v>2021 XII</v>
+        <v>2021 XI</v>
       </c>
       <c r="C65">
         <f ca="1"/>
@@ -3855,41 +3846,41 @@
       </c>
       <c r="E65">
         <f ca="1"/>
-        <v>0</v>
+        <v>100.4</v>
       </c>
       <c r="F65">
         <f ca="1"/>
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="G65">
         <f ca="1"/>
-        <v>0</v>
+        <v>101.6</v>
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0</v>
+        <v>100.7</v>
       </c>
       <c r="I65">
         <f ca="1"/>
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="J65">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.4</v>
       </c>
       <c r="K65">
         <f ca="1"/>
-        <v>108.5</v>
+        <v>93.5</v>
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>108.6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
         <f ca="1"/>
-        <v>2022 I</v>
+        <v>2021 XII</v>
       </c>
       <c r="C66">
         <f ca="1"/>
@@ -3925,17 +3916,17 @@
       </c>
       <c r="K66">
         <f ca="1"/>
-        <v>0</v>
+        <v>106.5</v>
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>0</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="str">
         <f ca="1"/>
-        <v>2022 II</v>
+        <v>2022 I</v>
       </c>
       <c r="C67">
         <f ca="1"/>
@@ -3981,7 +3972,7 @@
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="str">
         <f ca="1"/>
-        <v>2022 III</v>
+        <v>2022 II</v>
       </c>
       <c r="C68">
         <f ca="1"/>
@@ -4027,7 +4018,7 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="str">
         <f ca="1"/>
-        <v>2022 IV</v>
+        <v>2022 III</v>
       </c>
       <c r="C69">
         <f ca="1"/>
@@ -4073,7 +4064,7 @@
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
         <f ca="1"/>
-        <v>2022 V</v>
+        <v>2022 IV</v>
       </c>
       <c r="C70">
         <f ca="1"/>
@@ -4119,7 +4110,7 @@
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
         <f ca="1"/>
-        <v>2022 VI</v>
+        <v>2022 V</v>
       </c>
       <c r="C71">
         <f ca="1"/>
@@ -4165,7 +4156,7 @@
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
         <f ca="1"/>
-        <v>2022 VII</v>
+        <v>2022 VI</v>
       </c>
       <c r="C72">
         <f ca="1"/>
@@ -4211,7 +4202,7 @@
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
         <f ca="1"/>
-        <v>2022 VIIII</v>
+        <v>2022 VII</v>
       </c>
       <c r="C73">
         <f ca="1"/>
@@ -4257,7 +4248,7 @@
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
         <f ca="1"/>
-        <v>2022 IX</v>
+        <v>2022 VIIII</v>
       </c>
       <c r="C74">
         <f ca="1"/>
@@ -4303,7 +4294,7 @@
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <f ca="1"/>
-        <v>2022 X</v>
+        <v>2022 IX</v>
       </c>
       <c r="C75">
         <f ca="1"/>
@@ -4349,7 +4340,7 @@
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f ca="1"/>
-        <v>2022 XI</v>
+        <v>2022 X</v>
       </c>
       <c r="C76">
         <f ca="1"/>
@@ -4395,45 +4386,91 @@
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <f ca="1"/>
+        <v>2022 XI</v>
+      </c>
+      <c r="C77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <f ca="1"/>
         <v>2022 XII</v>
       </c>
-      <c r="C77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="C78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -4498,13 +4535,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
@@ -4534,7 +4571,7 @@
       <c r="H3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="41" t="s">
@@ -4553,42 +4590,42 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="46"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="41"/>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4596,10 +4633,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="27"/>
       <c r="D6">
         <v>101.5</v>
       </c>
@@ -4629,8 +4666,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7">
         <v>103.6</v>
       </c>
@@ -4660,8 +4697,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8">
         <v>104</v>
       </c>
@@ -4691,8 +4728,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9">
         <v>105.1</v>
       </c>
@@ -4722,8 +4759,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10">
         <v>105.9</v>
       </c>
@@ -4753,8 +4790,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11">
         <v>105.5</v>
       </c>
@@ -4784,8 +4821,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12">
         <v>105.7</v>
       </c>
@@ -4815,8 +4852,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <v>106.2</v>
       </c>
@@ -4846,8 +4883,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14">
         <v>106.5</v>
       </c>
@@ -4877,8 +4914,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15">
         <v>106.5</v>
       </c>
@@ -4908,8 +4945,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16">
         <v>107.1</v>
       </c>
@@ -4939,8 +4976,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17">
         <v>107.4</v>
       </c>
@@ -4970,8 +5007,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18">
         <v>108.2</v>
       </c>
@@ -5001,8 +5038,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19">
         <v>108</v>
       </c>
@@ -5032,8 +5069,8 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20">
         <v>110.1</v>
       </c>
@@ -5063,8 +5100,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21">
         <v>110.9</v>
       </c>
@@ -5094,8 +5131,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22">
         <v>110.6</v>
       </c>
@@ -5125,8 +5162,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23">
         <v>110.6</v>
       </c>
@@ -5156,8 +5193,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24">
         <v>110</v>
       </c>
@@ -5187,8 +5224,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25">
         <v>109.9</v>
       </c>
@@ -5218,8 +5255,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26">
         <v>110.9</v>
       </c>
@@ -5249,8 +5286,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27">
         <v>110.5</v>
       </c>
@@ -5280,8 +5317,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28">
         <v>110.3</v>
       </c>
@@ -5311,8 +5348,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29">
         <v>110.9</v>
       </c>
@@ -5342,8 +5379,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30">
         <v>110.7</v>
       </c>
@@ -5373,8 +5410,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31">
         <v>110.9</v>
       </c>
@@ -5404,8 +5441,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32">
         <v>110.5</v>
       </c>
@@ -5435,8 +5472,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33">
         <v>111.2</v>
       </c>
@@ -5466,8 +5503,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34">
         <v>111.4</v>
       </c>
@@ -5497,8 +5534,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35">
         <v>111.8</v>
       </c>
@@ -5528,8 +5565,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36">
         <v>112.8</v>
       </c>
@@ -5559,8 +5596,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37">
         <v>113.9</v>
       </c>
@@ -5590,8 +5627,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38">
         <v>115</v>
       </c>
@@ -5621,8 +5658,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39">
         <v>115.8</v>
       </c>
@@ -5652,8 +5689,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40">
         <v>116.3</v>
       </c>
@@ -5683,8 +5720,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="J41">
         <v>121.7</v>
       </c>
@@ -5696,85 +5733,85 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5816,18 +5853,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5835,13 +5872,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -5871,7 +5908,7 @@
       <c r="H3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="41" t="s">
@@ -5890,42 +5927,42 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="46"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="41"/>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5933,10 +5970,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="30"/>
       <c r="D6">
         <v>107.4</v>
       </c>
@@ -5966,8 +6003,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7">
         <v>110.4</v>
       </c>
@@ -5997,8 +6034,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8">
         <v>109.5</v>
       </c>
@@ -6028,8 +6065,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9">
         <v>109.6</v>
       </c>
@@ -6059,8 +6096,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10">
         <v>108.6</v>
       </c>
@@ -6090,8 +6127,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11">
         <v>107.4</v>
       </c>
@@ -6121,8 +6158,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12">
         <v>107</v>
       </c>
@@ -6152,8 +6189,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13">
         <v>107.8</v>
       </c>
@@ -6183,8 +6220,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14">
         <v>108.4</v>
       </c>
@@ -6214,8 +6251,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15">
         <v>107.6</v>
       </c>
@@ -6245,8 +6282,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16">
         <v>107.6</v>
       </c>
@@ -6276,8 +6313,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17">
         <v>107.4</v>
       </c>
@@ -6307,8 +6344,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18">
         <v>106.6</v>
       </c>
@@ -6338,8 +6375,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19">
         <v>104.3</v>
       </c>
@@ -6369,10 +6406,10 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="30">
         <v>2</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="30"/>
       <c r="D20">
         <v>105.8</v>
       </c>
@@ -6402,8 +6439,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21">
         <v>105.4</v>
       </c>
@@ -6433,8 +6470,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22">
         <v>104.3</v>
       </c>
@@ -6464,8 +6501,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23">
         <v>104.8</v>
       </c>
@@ -6495,8 +6532,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24">
         <v>104</v>
       </c>
@@ -6526,8 +6563,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25">
         <v>103.4</v>
       </c>
@@ -6557,8 +6594,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26">
         <v>104</v>
       </c>
@@ -6588,8 +6625,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27">
         <v>103.6</v>
       </c>
@@ -6619,8 +6656,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28">
         <v>102.8</v>
       </c>
@@ -6650,8 +6687,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29">
         <v>103</v>
       </c>
@@ -6681,8 +6718,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30">
         <v>102.1</v>
       </c>
@@ -6712,8 +6749,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31">
         <v>102.5</v>
       </c>
@@ -6743,8 +6780,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32">
         <v>100.2</v>
       </c>
@@ -6774,8 +6811,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33">
         <v>100.1</v>
       </c>
@@ -6805,8 +6842,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34">
         <v>100.6</v>
       </c>
@@ -6836,8 +6873,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
       <c r="D35">
         <v>101</v>
       </c>
@@ -6867,8 +6904,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36">
         <v>102.5</v>
       </c>
@@ -6898,8 +6935,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
       <c r="D37">
         <v>103.7</v>
       </c>
@@ -6929,8 +6966,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
       <c r="D38">
         <v>103.8</v>
       </c>
@@ -6960,8 +6997,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39">
         <v>105</v>
       </c>
@@ -6991,8 +7028,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40">
         <v>105.6</v>
       </c>
@@ -7022,8 +7059,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
       <c r="J41">
         <v>108.5</v>
       </c>
@@ -7035,96 +7072,96 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="22"/>
     </row>
   </sheetData>
@@ -7168,18 +7205,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="13"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7187,13 +7224,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -7223,7 +7260,7 @@
       <c r="H3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="41" t="s">
@@ -7242,42 +7279,42 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="46"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7285,10 +7322,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="30"/>
       <c r="D6">
         <v>101.5</v>
       </c>
@@ -7318,8 +7355,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7">
         <v>102.1</v>
       </c>
@@ -7349,8 +7386,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8">
         <v>100.4</v>
       </c>
@@ -7380,8 +7417,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9">
         <v>101.1</v>
       </c>
@@ -7411,8 +7448,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10">
         <v>100.8</v>
       </c>
@@ -7442,8 +7479,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11">
         <v>99.6</v>
       </c>
@@ -7473,8 +7510,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12">
         <v>100.2</v>
       </c>
@@ -7504,8 +7541,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13">
         <v>100.5</v>
       </c>
@@ -7535,8 +7572,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14">
         <v>100.3</v>
       </c>
@@ -7566,8 +7603,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15">
         <v>100</v>
       </c>
@@ -7597,8 +7634,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16">
         <v>100.6</v>
       </c>
@@ -7628,8 +7665,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17">
         <v>100.3</v>
       </c>
@@ -7659,8 +7696,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18">
         <v>100.7</v>
       </c>
@@ -7690,8 +7727,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19">
         <v>99.8</v>
       </c>
@@ -7721,8 +7758,8 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20">
         <v>101.9</v>
       </c>
@@ -7752,8 +7789,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21">
         <v>100.7</v>
       </c>
@@ -7783,8 +7820,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22">
         <v>99.7</v>
       </c>
@@ -7814,8 +7851,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23">
         <v>100</v>
       </c>
@@ -7845,8 +7882,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24">
         <v>99.5</v>
       </c>
@@ -7876,8 +7913,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25">
         <v>99.9</v>
       </c>
@@ -7907,8 +7944,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26">
         <v>100.9</v>
       </c>
@@ -7938,8 +7975,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27">
         <v>99.6</v>
       </c>
@@ -7969,8 +8006,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28">
         <v>99.8</v>
       </c>
@@ -8000,8 +8037,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29">
         <v>100.5</v>
       </c>
@@ -8031,8 +8068,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30">
         <v>99.8</v>
       </c>
@@ -8062,8 +8099,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31">
         <v>100.2</v>
       </c>
@@ -8093,8 +8130,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32">
         <v>99.6</v>
       </c>
@@ -8124,8 +8161,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33">
         <v>100.6</v>
       </c>
@@ -8155,8 +8192,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34">
         <v>100.2</v>
       </c>
@@ -8186,8 +8223,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
       <c r="D35">
         <v>100.4</v>
       </c>
@@ -8217,8 +8254,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36">
         <v>100.9</v>
       </c>
@@ -8248,8 +8285,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
       <c r="D37">
         <v>101</v>
       </c>
@@ -8279,8 +8316,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
       <c r="D38">
         <v>101</v>
       </c>
@@ -8310,8 +8347,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39">
         <v>100.7</v>
       </c>
@@ -8341,8 +8378,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40">
         <v>100.4</v>
       </c>
@@ -8372,8 +8409,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
       <c r="J41">
         <v>106.5</v>
       </c>
@@ -8385,96 +8422,96 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,164 +8663,164 @@
         <v>2</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
     </row>
     <row r="30" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/wskazniki.xlsx
+++ b/wskazniki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INNE\Repo\gu-schedule-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\gu-schedule-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A516548-45F5-4AB7-93FB-9B6C67F922FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0106AAF-25E0-426C-B8D4-96C0684BC381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
+    <workbookView xWindow="4185" yWindow="3075" windowWidth="28800" windowHeight="15735" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczydło" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="105">
   <si>
     <t>Rodzaj informacji: XII 2018 = 100</t>
   </si>
@@ -378,13 +378,19 @@
     <t>Table3</t>
   </si>
   <si>
-    <t>Kwota</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
     <t>stop</t>
+  </si>
+  <si>
+    <t>Kwota:</t>
+  </si>
+  <si>
+    <t>T?</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +515,14 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -698,19 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
@@ -793,13 +794,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,25 +862,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,14 +882,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
@@ -900,7 +915,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,24 +933,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="43" fontId="14" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{908D5E4D-BD62-40A9-A460-7354A5A46A5A}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF395362"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD3D3D3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD3D3D3"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1241,96 +1398,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF395362"/>
-          <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFD3D3D3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFD3D3D3"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1627,33 +1694,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}" name="Table1" displayName="Table1" ref="A5:K53" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}" name="Table1" displayName="Table1" ref="A5:K53" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A5:K53" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{300095C1-C47C-4BA6-832E-102ACFC6EFF4}" name="08.1"/>
-    <tableColumn id="5" xr3:uid="{6A2D816B-EE9E-4FFC-B46B-20AB911E5F4D}" name="08.9"/>
-    <tableColumn id="6" xr3:uid="{07E1FDD9-4F28-4FC0-BF84-6525B98F8E13}" name="19.2"/>
-    <tableColumn id="7" xr3:uid="{5A014AC2-55F5-4BF0-821D-F998B7465E58}" name="23.5"/>
-    <tableColumn id="8" xr3:uid="{44A49C6D-4F80-40C5-82A7-92987C3D7F6B}" name="24.1"/>
-    <tableColumn id="9" xr3:uid="{B0E7F45B-0773-450E-A2CB-CA5CBF362986}" name="24.4"/>
-    <tableColumn id="10" xr3:uid="{157F7886-5333-41E2-B1F3-5A2B7526C95D}" name="F.42"/>
-    <tableColumn id="11" xr3:uid="{561E2F7D-2D45-41DF-B289-6844C951EF99}" name="C.00"/>
+    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{300095C1-C47C-4BA6-832E-102ACFC6EFF4}" name="08.1" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6A2D816B-EE9E-4FFC-B46B-20AB911E5F4D}" name="08.9" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{07E1FDD9-4F28-4FC0-BF84-6525B98F8E13}" name="19.2" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5A014AC2-55F5-4BF0-821D-F998B7465E58}" name="23.5" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{44A49C6D-4F80-40C5-82A7-92987C3D7F6B}" name="24.1" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B0E7F45B-0773-450E-A2CB-CA5CBF362986}" name="24.4" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{157F7886-5333-41E2-B1F3-5A2B7526C95D}" name="F.42" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{561E2F7D-2D45-41DF-B289-6844C951EF99}" name="C.00" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A5:K53" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{E434767A-51B8-41E8-95DE-2E4825648920}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{C9C4993F-8A91-447D-AD69-C6B541B7612A}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{3CE016BE-5225-46A8-A320-C00578ABF1F1}" name="23.5"/>
@@ -1667,13 +1734,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A5:K53" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{E0B773C5-950F-41BA-92CC-0D44991105BE}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{59D3EDF2-5718-4538-B830-F92452E69368}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{27B86EFE-9577-4522-A915-BE1F26FADD59}" name="23.5"/>
@@ -1986,8 +2053,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,18 +2067,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>99</v>
+      <c r="D2" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="3:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="21"/>
-      <c r="D3" s="34"/>
+      <c r="D3" s="31"/>
       <c r="G3" s="21"/>
       <c r="H3" s="20"/>
     </row>
@@ -2019,29 +2086,29 @@
       <c r="C4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>21</v>
+      <c r="D4" s="54" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="34"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>35</v>
+      <c r="D6" s="54" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="52">
+      <c r="C8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="49">
         <v>100000</v>
       </c>
       <c r="H8" s="24"/>
@@ -2076,21 +2143,27 @@
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="54" t="s">
-        <v>102</v>
+      <c r="K15" s="60">
+        <f>(F16+F17+F24)/100</f>
+        <v>0.71</v>
       </c>
       <c r="M15">
         <v>147.19999999999999</v>
@@ -2108,161 +2181,229 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="51">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),2)</f>
-        <v>3</v>
-      </c>
-      <c r="I16">
+        <v>105.3</v>
+      </c>
+      <c r="I16" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),2)</f>
-        <v>0</v>
-      </c>
+        <v>107.6</v>
+      </c>
+      <c r="J16" s="63">
+        <f ca="1">IF(G16&lt;&gt;"",I16/H16*100,"")</f>
+        <v>102.18423551756885</v>
+      </c>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="51">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),3)</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
+        <v>103.5</v>
+      </c>
+      <c r="I17" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),3)</f>
-        <v>0</v>
+        <v>96.1</v>
+      </c>
+      <c r="J17" s="63">
+        <f t="shared" ref="J17:J23" ca="1" si="0">IF(G17&lt;&gt;"",I17/H17*100,"")</f>
+        <v>92.850241545893724</v>
+      </c>
+      <c r="K17" s="64">
+        <f ca="1">I17*(F17/100)</f>
+        <v>5.7659999999999991</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="51">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),4)</f>
-        <v>101.5</v>
-      </c>
-      <c r="I18">
+        <v>110.6</v>
+      </c>
+      <c r="I18" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),4)</f>
-        <v>101.9</v>
-      </c>
+        <v>110.9</v>
+      </c>
+      <c r="J18" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>100.27124773960219</v>
+      </c>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="48"/>
-      <c r="H19">
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),5)</f>
-        <v>100.7</v>
-      </c>
-      <c r="I19">
+        <v>106.3</v>
+      </c>
+      <c r="I19" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),5)</f>
-        <v>100.1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J19" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="51">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),6)</f>
-        <v>101.1</v>
-      </c>
-      <c r="I20">
+        <v>88.1</v>
+      </c>
+      <c r="I20" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),6)</f>
-        <v>85.7</v>
+        <v>109</v>
+      </c>
+      <c r="J20" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>123.72304199772985</v>
+      </c>
+      <c r="K20" s="64">
+        <f ca="1">I20*(F20/100)</f>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="51">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),7)</f>
-        <v>102</v>
-      </c>
-      <c r="I21">
+        <v>115.2</v>
+      </c>
+      <c r="I21" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),7)</f>
-        <v>102.5</v>
-      </c>
+        <v>116.5</v>
+      </c>
+      <c r="J21" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>101.12847222222221</v>
+      </c>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="51">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>100.3</v>
-      </c>
-      <c r="I22">
+        <v>87.2</v>
+      </c>
+      <c r="I22" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>104.1</v>
-      </c>
+        <v>103.3</v>
+      </c>
+      <c r="J22" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>118.46330275229357</v>
+      </c>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="51">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>100.3</v>
-      </c>
-      <c r="I23">
+        <v>87.2</v>
+      </c>
+      <c r="I23" s="60">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>104.1</v>
-      </c>
+        <v>103.3</v>
+      </c>
+      <c r="J23" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>118.46330275229357</v>
+      </c>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="50">
+      <c r="F25" s="33">
         <f>SUM(F16:F24)</f>
         <v>100</v>
       </c>
@@ -2274,7 +2415,7 @@
       </c>
       <c r="C31">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f ca="1"/>
@@ -2328,35 +2469,35 @@
       </c>
       <c r="E32">
         <f ca="1"/>
-        <v>102.1</v>
+        <v>103.6</v>
       </c>
       <c r="F32">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>100.3</v>
       </c>
       <c r="G32">
         <f ca="1"/>
-        <v>105.8</v>
+        <v>107</v>
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>102.8</v>
       </c>
       <c r="I32">
         <f ca="1"/>
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="J32">
         <f ca="1"/>
-        <v>105.4</v>
+        <v>103.9</v>
       </c>
       <c r="K32">
         <f ca="1"/>
-        <v>98.4</v>
+        <v>88.3</v>
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -2374,35 +2515,35 @@
       </c>
       <c r="E33">
         <f ca="1"/>
-        <v>100.4</v>
+        <v>104</v>
       </c>
       <c r="F33">
         <f ca="1"/>
-        <v>99.4</v>
+        <v>99.7</v>
       </c>
       <c r="G33">
         <f ca="1"/>
-        <v>102.2</v>
+        <v>109.4</v>
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>101.7</v>
+        <v>104.5</v>
       </c>
       <c r="I33">
         <f ca="1"/>
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="J33">
         <f ca="1"/>
-        <v>100</v>
+        <v>103.9</v>
       </c>
       <c r="K33">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>91.2</v>
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -2420,35 +2561,35 @@
       </c>
       <c r="E34">
         <f ca="1"/>
-        <v>101.1</v>
+        <v>105.1</v>
       </c>
       <c r="F34">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>99.3</v>
       </c>
       <c r="G34">
         <f ca="1"/>
+        <v>113.6</v>
+      </c>
+      <c r="H34">
+        <f ca="1"/>
+        <v>106.6</v>
+      </c>
+      <c r="I34">
+        <f ca="1"/>
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <f ca="1"/>
         <v>103.8</v>
       </c>
-      <c r="H34">
-        <f ca="1"/>
-        <v>102</v>
-      </c>
-      <c r="I34">
-        <f ca="1"/>
-        <v>100.2</v>
-      </c>
-      <c r="J34">
-        <f ca="1"/>
-        <v>99.9</v>
-      </c>
       <c r="K34">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>96</v>
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -2466,35 +2607,35 @@
       </c>
       <c r="E35">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>105.9</v>
       </c>
       <c r="F35">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="G35">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>114.2</v>
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>107.3</v>
       </c>
       <c r="I35">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>98.1</v>
       </c>
       <c r="J35">
         <f ca="1"/>
-        <v>96</v>
+        <v>99.6</v>
       </c>
       <c r="K35">
         <f ca="1"/>
-        <v>106.5</v>
+        <v>102.3</v>
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -2512,35 +2653,35 @@
       </c>
       <c r="E36">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>105.5</v>
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="G36">
         <f ca="1"/>
-        <v>94.2</v>
+        <v>107.6</v>
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>107.4</v>
       </c>
       <c r="I36">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>98</v>
       </c>
       <c r="J36">
         <f ca="1"/>
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="K36">
         <f ca="1"/>
-        <v>96.2</v>
+        <v>98.4</v>
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2558,35 +2699,35 @@
       </c>
       <c r="E37">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>105.7</v>
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="G37">
         <f ca="1"/>
-        <v>102</v>
+        <v>109.8</v>
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>107.5</v>
       </c>
       <c r="I37">
         <f ca="1"/>
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="J37">
         <f ca="1"/>
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="K37">
         <f ca="1"/>
-        <v>101.9</v>
+        <v>100.3</v>
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>100</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2604,35 +2745,35 @@
       </c>
       <c r="E38">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>106.2</v>
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>102.1</v>
       </c>
       <c r="G38">
         <f ca="1"/>
-        <v>99.7</v>
+        <v>109.5</v>
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>107.7</v>
       </c>
       <c r="I38">
         <f ca="1"/>
-        <v>101</v>
+        <v>97.5</v>
       </c>
       <c r="J38">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>100</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -2650,23 +2791,23 @@
       </c>
       <c r="E39">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>106.5</v>
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>102.3</v>
       </c>
       <c r="G39">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>112.2</v>
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>107.8</v>
       </c>
       <c r="I39">
         <f ca="1"/>
-        <v>99.3</v>
+        <v>96.8</v>
       </c>
       <c r="J39">
         <f ca="1"/>
@@ -2674,11 +2815,11 @@
       </c>
       <c r="K39">
         <f ca="1"/>
-        <v>96.2</v>
+        <v>99.6</v>
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>100</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -2696,35 +2837,35 @@
       </c>
       <c r="E40">
         <f ca="1"/>
-        <v>100</v>
+        <v>106.5</v>
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>102.4</v>
       </c>
       <c r="G40">
         <f ca="1"/>
-        <v>97</v>
+        <v>108.8</v>
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>108</v>
       </c>
       <c r="I40">
         <f ca="1"/>
-        <v>96.4</v>
+        <v>93.3</v>
       </c>
       <c r="J40">
         <f ca="1"/>
-        <v>99</v>
+        <v>101.6</v>
       </c>
       <c r="K40">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>107.2</v>
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2742,35 +2883,35 @@
       </c>
       <c r="E41">
         <f ca="1"/>
-        <v>100.6</v>
+        <v>107.1</v>
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>102.9</v>
       </c>
       <c r="G41">
         <f ca="1"/>
-        <v>99.2</v>
+        <v>107.9</v>
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>108.3</v>
       </c>
       <c r="I41">
         <f ca="1"/>
-        <v>96.3</v>
+        <v>89.8</v>
       </c>
       <c r="J41">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>101.2</v>
       </c>
       <c r="K41">
         <f ca="1"/>
-        <v>94.3</v>
+        <v>101.1</v>
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -2788,35 +2929,35 @@
       </c>
       <c r="E42">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>107.4</v>
       </c>
       <c r="F42">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>103</v>
       </c>
       <c r="G42">
         <f ca="1"/>
-        <v>101.9</v>
+        <v>110</v>
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>108.6</v>
       </c>
       <c r="I42">
         <f ca="1"/>
-        <v>97</v>
+        <v>87.1</v>
       </c>
       <c r="J42">
         <f ca="1"/>
-        <v>101</v>
+        <v>102.2</v>
       </c>
       <c r="K42">
         <f ca="1"/>
-        <v>104.3</v>
+        <v>105.5</v>
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -2826,43 +2967,43 @@
       </c>
       <c r="C43">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D43">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E43">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>108.2</v>
       </c>
       <c r="F43">
         <f ca="1"/>
+        <v>105.1</v>
+      </c>
+      <c r="G43">
+        <f ca="1"/>
+        <v>109</v>
+      </c>
+      <c r="H43">
+        <f ca="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="I43">
+        <f ca="1"/>
+        <v>88.1</v>
+      </c>
+      <c r="J43">
+        <f ca="1"/>
         <v>102</v>
       </c>
-      <c r="G43">
-        <f ca="1"/>
-        <v>99.1</v>
-      </c>
-      <c r="H43">
-        <f ca="1"/>
-        <v>100.8</v>
-      </c>
-      <c r="I43">
-        <f ca="1"/>
-        <v>101.2</v>
-      </c>
-      <c r="J43">
-        <f ca="1"/>
-        <v>99.8</v>
-      </c>
       <c r="K43">
         <f ca="1"/>
-        <v>88.7</v>
+        <v>93.6</v>
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2872,43 +3013,43 @@
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D44">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E44">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>108</v>
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>104.9</v>
       </c>
       <c r="G44">
         <f ca="1"/>
-        <v>95</v>
+        <v>103.6</v>
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>110.4</v>
       </c>
       <c r="I44">
         <f ca="1"/>
-        <v>99.2</v>
+        <v>87.4</v>
       </c>
       <c r="J44">
         <f ca="1"/>
-        <v>99.1</v>
+        <v>101.1</v>
       </c>
       <c r="K44">
         <f ca="1"/>
-        <v>101.6</v>
+        <v>95.1</v>
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2918,43 +3059,43 @@
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D45">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E45">
         <f ca="1"/>
-        <v>101.9</v>
+        <v>110.1</v>
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>105</v>
       </c>
       <c r="G45">
         <f ca="1"/>
-        <v>85.7</v>
+        <v>88.8</v>
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>113.2</v>
       </c>
       <c r="I45">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>91</v>
       </c>
       <c r="J45">
         <f ca="1"/>
-        <v>94.9</v>
+        <v>95.9</v>
       </c>
       <c r="K45">
         <f ca="1"/>
-        <v>104.9</v>
+        <v>99.8</v>
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2964,43 +3105,43 @@
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D46">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E46">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>110.9</v>
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>100.6</v>
+        <v>105.6</v>
       </c>
       <c r="G46">
         <f ca="1"/>
-        <v>85</v>
+        <v>75.5</v>
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>101.7</v>
+        <v>115.1</v>
       </c>
       <c r="I46">
         <f ca="1"/>
-        <v>101.3</v>
+        <v>92.2</v>
       </c>
       <c r="J46">
         <f ca="1"/>
-        <v>102.5</v>
+        <v>98.3</v>
       </c>
       <c r="K46">
         <f ca="1"/>
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -3010,43 +3151,43 @@
       </c>
       <c r="C47">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D47">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E47">
         <f ca="1"/>
-        <v>99.7</v>
+        <v>110.6</v>
       </c>
       <c r="F47">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>105.8</v>
       </c>
       <c r="G47">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>78.2</v>
       </c>
       <c r="H47">
         <f ca="1"/>
+        <v>115.9</v>
+      </c>
+      <c r="I47">
+        <f ca="1"/>
+        <v>90.6</v>
+      </c>
+      <c r="J47">
+        <f ca="1"/>
         <v>100.7</v>
       </c>
-      <c r="I47">
-        <f ca="1"/>
-        <v>98.3</v>
-      </c>
-      <c r="J47">
-        <f ca="1"/>
-        <v>102.4</v>
-      </c>
       <c r="K47">
         <f ca="1"/>
-        <v>91.3</v>
+        <v>97.4</v>
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -3056,43 +3197,43 @@
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D48">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E48">
         <f ca="1"/>
-        <v>100</v>
+        <v>110.6</v>
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>106.3</v>
       </c>
       <c r="G48">
         <f ca="1"/>
-        <v>112.7</v>
+        <v>88.1</v>
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>99.4</v>
+        <v>115.2</v>
       </c>
       <c r="I48">
         <f ca="1"/>
-        <v>96.3</v>
+        <v>87.2</v>
       </c>
       <c r="J48">
         <f ca="1"/>
-        <v>102.6</v>
+        <v>103.3</v>
       </c>
       <c r="K48">
         <f ca="1"/>
-        <v>105</v>
+        <v>102.2</v>
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>100.6</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -3102,43 +3243,43 @@
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>99.5</v>
+        <v>110</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>106.2</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>103.9</v>
+        <v>91.5</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>115.1</v>
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>98.7</v>
+        <v>86.1</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>106.5</v>
+        <v>110</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>101.3</v>
+        <v>103.5</v>
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -3156,35 +3297,35 @@
       </c>
       <c r="E50">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>109.9</v>
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>106</v>
       </c>
       <c r="G50">
         <f ca="1"/>
-        <v>99.2</v>
+        <v>90.8</v>
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>115.3</v>
       </c>
       <c r="I50">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>85.8</v>
       </c>
       <c r="J50">
         <f ca="1"/>
-        <v>99</v>
+        <v>108.9</v>
       </c>
       <c r="K50">
         <f ca="1"/>
-        <v>103.6</v>
+        <v>107.2</v>
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -3202,35 +3343,35 @@
       </c>
       <c r="E51">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>110.9</v>
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>99.7</v>
+        <v>105.7</v>
       </c>
       <c r="G51">
         <f ca="1"/>
-        <v>96.6</v>
+        <v>87.7</v>
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>115.6</v>
       </c>
       <c r="I51">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>87.9</v>
       </c>
       <c r="J51">
         <f ca="1"/>
-        <v>103.8</v>
+        <v>113</v>
       </c>
       <c r="K51">
         <f ca="1"/>
-        <v>96.3</v>
+        <v>103.2</v>
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -3248,35 +3389,35 @@
       </c>
       <c r="E52">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>110.5</v>
       </c>
       <c r="F52">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>106.4</v>
       </c>
       <c r="G52">
         <f ca="1"/>
-        <v>102.2</v>
+        <v>89.6</v>
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>100</v>
+        <v>115.6</v>
       </c>
       <c r="I52">
         <f ca="1"/>
-        <v>101.9</v>
+        <v>89.6</v>
       </c>
       <c r="J52">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>114</v>
       </c>
       <c r="K52">
         <f ca="1"/>
-        <v>110.6</v>
+        <v>114.1</v>
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -3294,35 +3435,35 @@
       </c>
       <c r="E53">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>110.3</v>
       </c>
       <c r="F53">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>106.3</v>
       </c>
       <c r="G53">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>90.4</v>
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>115.1</v>
       </c>
       <c r="I53">
         <f ca="1"/>
-        <v>101.1</v>
+        <v>90.6</v>
       </c>
       <c r="J53">
         <f ca="1"/>
-        <v>102</v>
+        <v>116.3</v>
       </c>
       <c r="K53">
         <f ca="1"/>
-        <v>90.7</v>
+        <v>103.6</v>
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -3340,35 +3481,35 @@
       </c>
       <c r="E54">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>110.9</v>
       </c>
       <c r="F54">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>107</v>
       </c>
       <c r="G54">
         <f ca="1"/>
-        <v>106.3</v>
+        <v>96.1</v>
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>99.7</v>
+        <v>114.8</v>
       </c>
       <c r="I54">
         <f ca="1"/>
-        <v>101.5</v>
+        <v>92</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>103.1</v>
+        <v>119.9</v>
       </c>
       <c r="K54">
         <f ca="1"/>
-        <v>108.3</v>
+        <v>112.1</v>
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -3386,35 +3527,35 @@
       </c>
       <c r="E55">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>110.7</v>
       </c>
       <c r="F55">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>107.7</v>
       </c>
       <c r="G55">
         <f ca="1"/>
-        <v>106.2</v>
+        <v>102.1</v>
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>116.2</v>
       </c>
       <c r="I55">
         <f ca="1"/>
-        <v>104.7</v>
+        <v>96.3</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>105.1</v>
+        <v>126</v>
       </c>
       <c r="K55">
         <f ca="1"/>
-        <v>86.3</v>
+        <v>96.8</v>
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>101.3</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -3424,43 +3565,43 @@
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>0</v>
+        <v>107.6</v>
       </c>
       <c r="D56">
         <f ca="1"/>
-        <v>0</v>
+        <v>96.1</v>
       </c>
       <c r="E56">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>110.9</v>
       </c>
       <c r="F56">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>109</v>
       </c>
       <c r="G56">
         <f ca="1"/>
-        <v>106.8</v>
+        <v>109</v>
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>116.5</v>
       </c>
       <c r="I56">
         <f ca="1"/>
-        <v>107.3</v>
+        <v>103.3</v>
       </c>
       <c r="J56">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="K56">
         <f ca="1"/>
-        <v>99.3</v>
+        <v>96.1</v>
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -3478,35 +3619,35 @@
       </c>
       <c r="E57">
         <f ca="1"/>
-        <v>99.6</v>
+        <v>110.5</v>
       </c>
       <c r="F57">
         <f ca="1"/>
-        <v>99.8</v>
+        <v>108.8</v>
       </c>
       <c r="G57">
         <f ca="1"/>
-        <v>108.2</v>
+        <v>117.9</v>
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>117.1</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>105.7</v>
+        <v>109.2</v>
       </c>
       <c r="J57">
         <f ca="1"/>
-        <v>105.2</v>
+        <v>137</v>
       </c>
       <c r="K57">
         <f ca="1"/>
-        <v>109.2</v>
+        <v>104.9</v>
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>101</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -3524,35 +3665,35 @@
       </c>
       <c r="E58">
         <f ca="1"/>
-        <v>100.6</v>
+        <v>111.2</v>
       </c>
       <c r="F58">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>109.1</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>99.3</v>
+        <v>117.1</v>
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>101.8</v>
+        <v>119.2</v>
       </c>
       <c r="I58">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>113.7</v>
       </c>
       <c r="J58">
         <f ca="1"/>
-        <v>102.1</v>
+        <v>139.9</v>
       </c>
       <c r="K58">
         <f ca="1"/>
-        <v>111</v>
+        <v>116.5</v>
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>100.8</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -3570,35 +3711,35 @@
       </c>
       <c r="E59">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>111.4</v>
       </c>
       <c r="F59">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>109</v>
       </c>
       <c r="G59">
         <f ca="1"/>
-        <v>102.2</v>
+        <v>119.7</v>
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>119.4</v>
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>118.4</v>
       </c>
       <c r="J59">
         <f ca="1"/>
-        <v>104</v>
+        <v>145.5</v>
       </c>
       <c r="K59">
         <f ca="1"/>
-        <v>90</v>
+        <v>104.8</v>
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -3616,35 +3757,35 @@
       </c>
       <c r="E60">
         <f ca="1"/>
-        <v>100.4</v>
+        <v>111.8</v>
       </c>
       <c r="F60">
         <f ca="1"/>
-        <v>101.5</v>
+        <v>110.6</v>
       </c>
       <c r="G60">
         <f ca="1"/>
-        <v>103.3</v>
+        <v>123.7</v>
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>99.9</v>
+        <v>119.3</v>
       </c>
       <c r="I60">
         <f ca="1"/>
-        <v>106.7</v>
+        <v>126.3</v>
       </c>
       <c r="J60">
         <f ca="1"/>
-        <v>97.1</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="K60">
         <f ca="1"/>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>100.1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -3662,35 +3803,35 @@
       </c>
       <c r="E61">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>112.8</v>
       </c>
       <c r="F61">
         <f ca="1"/>
-        <v>101.2</v>
+        <v>111.9</v>
       </c>
       <c r="G61">
         <f ca="1"/>
-        <v>104.7</v>
+        <v>129.5</v>
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>119.9</v>
       </c>
       <c r="I61">
         <f ca="1"/>
-        <v>108.9</v>
+        <v>137.5</v>
       </c>
       <c r="J61">
         <f ca="1"/>
-        <v>101.4</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="K61">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>109.2</v>
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>100.4</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -3708,35 +3849,35 @@
       </c>
       <c r="E62">
         <f ca="1"/>
-        <v>101</v>
+        <v>113.9</v>
       </c>
       <c r="F62">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>112.2</v>
       </c>
       <c r="G62">
         <f ca="1"/>
-        <v>98.3</v>
+        <v>127.3</v>
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>100.6</v>
+        <v>120.6</v>
       </c>
       <c r="I62">
         <f ca="1"/>
-        <v>107.1</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="J62">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>144</v>
       </c>
       <c r="K62">
         <f ca="1"/>
-        <v>104.1</v>
+        <v>113.7</v>
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>100.3</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -3754,35 +3895,35 @@
       </c>
       <c r="E63">
         <f ca="1"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F63">
         <f ca="1"/>
-        <v>101.6</v>
+        <v>114</v>
       </c>
       <c r="G63">
         <f ca="1"/>
-        <v>103.9</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>120.8</v>
       </c>
       <c r="I63">
         <f ca="1"/>
-        <v>101.8</v>
+        <v>150</v>
       </c>
       <c r="J63">
         <f ca="1"/>
-        <v>99.5</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="K63">
         <f ca="1"/>
-        <v>98.7</v>
+        <v>112.2</v>
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -3800,35 +3941,35 @@
       </c>
       <c r="E64">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>115.8</v>
       </c>
       <c r="F64">
         <f ca="1"/>
-        <v>102.8</v>
+        <v>117.2</v>
       </c>
       <c r="G64">
         <f ca="1"/>
-        <v>111.3</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>100.2</v>
+        <v>121</v>
       </c>
       <c r="I64">
         <f ca="1"/>
-        <v>98.7</v>
+        <v>148.1</v>
       </c>
       <c r="J64">
         <f ca="1"/>
-        <v>107.1</v>
+        <v>153.5</v>
       </c>
       <c r="K64">
         <f ca="1"/>
-        <v>108.9</v>
+        <v>122.2</v>
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>101.1</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -3846,35 +3987,35 @@
       </c>
       <c r="E65">
         <f ca="1"/>
-        <v>100.4</v>
+        <v>116.3</v>
       </c>
       <c r="F65">
         <f ca="1"/>
-        <v>102.4</v>
+        <v>120</v>
       </c>
       <c r="G65">
         <f ca="1"/>
-        <v>101.6</v>
+        <v>149.6</v>
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>100.7</v>
+        <v>121.8</v>
       </c>
       <c r="I65">
         <f ca="1"/>
-        <v>98.5</v>
+        <v>145.9</v>
       </c>
       <c r="J65">
         <f ca="1"/>
-        <v>103.4</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="K65">
         <f ca="1"/>
-        <v>93.5</v>
+        <v>114.3</v>
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>101</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -3916,11 +4057,11 @@
       </c>
       <c r="K66">
         <f ca="1"/>
-        <v>106.5</v>
+        <v>121.7</v>
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>100.9</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -4476,7 +4617,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Komunikat" error="Wybierz wartość z listy" sqref="D2" xr:uid="{B64CF689-5C6C-4FAC-A3C1-2C8DAEFC291E}">
       <formula1>worksheetName</formula1>
     </dataValidation>
@@ -4494,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF672A4E-7C03-430D-A0EE-15A06E60C8E0}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,13 +4676,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
@@ -4551,1267 +4692,1401 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="58">
         <v>1</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58">
         <v>101.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="58">
         <v>100.7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="58">
         <v>101.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="58">
         <v>102</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="58">
         <v>100.3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="58">
         <v>98.6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="58">
         <v>89.7</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="58">
         <v>99.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58">
         <v>103.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="58">
         <v>100.3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="58">
         <v>107</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="58">
         <v>102.8</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="58">
         <v>98.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="58">
         <v>103.9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="58">
         <v>88.3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="58">
         <v>100.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58">
         <v>104</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="58">
         <v>99.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="58">
         <v>109.4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="58">
         <v>104.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="58">
         <v>97.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="58">
         <v>103.9</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="58">
         <v>91.2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="58">
         <v>100.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58">
         <v>105.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="58">
         <v>99.3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="58">
         <v>113.6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="58">
         <v>106.6</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="58">
         <v>98</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="58">
         <v>103.8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="58">
         <v>96</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="58">
         <v>101.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58">
         <v>105.9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="58">
         <v>100.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="58">
         <v>114.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="58">
         <v>107.3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="58">
         <v>98.1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="58">
         <v>99.6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="58">
         <v>102.3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="58">
         <v>101.9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58">
         <v>105.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="58">
         <v>99.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="58">
         <v>107.6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="58">
         <v>107.4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="58">
         <v>98</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="58">
         <v>97.8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="58">
         <v>98.4</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="58">
         <v>102.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="58">
         <v>105.7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="58">
         <v>101.3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="58">
         <v>109.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="58">
         <v>107.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="58">
         <v>96.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="58">
         <v>98.8</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="58">
         <v>100.3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="58">
         <v>102.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58">
         <v>106.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="58">
         <v>102.1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="58">
         <v>109.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="58">
         <v>107.7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="58">
         <v>97.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="58">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="58">
         <v>103.6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="58">
         <v>102.2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58">
         <v>106.5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="58">
         <v>102.3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="58">
         <v>112.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="58">
         <v>107.8</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="58">
         <v>96.8</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="58">
         <v>102.6</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="58">
         <v>99.6</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="58">
         <v>102.2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58">
         <v>106.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="58">
         <v>102.4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="58">
         <v>108.8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="58">
         <v>108</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="58">
         <v>93.3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="58">
         <v>101.6</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="58">
         <v>107.2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="58">
         <v>102.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58">
         <v>107.1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="58">
         <v>102.9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="58">
         <v>107.9</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="58">
         <v>108.3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="58">
         <v>89.8</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="58">
         <v>101.2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="58">
         <v>101.1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="58">
         <v>102.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58">
         <v>107.4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="58">
         <v>103</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="58">
         <v>110</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="58">
         <v>108.6</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="58">
         <v>87.1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="58">
         <v>102.2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="58">
         <v>105.5</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="58">
         <v>103.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18">
+      <c r="B18" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C18" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D18" s="58">
         <v>108.2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="58">
         <v>105.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="58">
         <v>109</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="58">
         <v>109.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="58">
         <v>88.1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="58">
         <v>102</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="58">
         <v>93.6</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="58">
         <v>104.3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19">
+      <c r="B19" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C19" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D19" s="58">
         <v>108</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="58">
         <v>104.9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="58">
         <v>103.6</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="58">
         <v>110.4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="58">
         <v>87.4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="58">
         <v>101.1</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="58">
         <v>95.1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="58">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20">
+      <c r="B20" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C20" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D20" s="58">
         <v>110.1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="58">
         <v>105</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="58">
         <v>88.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="58">
         <v>113.2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="58">
         <v>91</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="58">
         <v>95.9</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="58">
         <v>99.8</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="58">
         <v>105.2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21">
+      <c r="B21" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C21" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D21" s="58">
         <v>110.9</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="58">
         <v>105.6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="58">
         <v>75.5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="58">
         <v>115.1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="58">
         <v>92.2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="58">
         <v>98.3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="58">
         <v>106.6</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="58">
         <v>105.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22">
+      <c r="B22" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C22" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D22" s="58">
         <v>110.6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="58">
         <v>105.8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="58">
         <v>78.2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="58">
         <v>115.9</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="58">
         <v>90.6</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="58">
         <v>100.7</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="58">
         <v>97.4</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="58">
         <v>104.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23">
+      <c r="B23" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C23" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D23" s="58">
         <v>110.6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="58">
         <v>106.3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="58">
         <v>88.1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="58">
         <v>115.2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="58">
         <v>87.2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="58">
         <v>103.3</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="58">
         <v>102.2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="58">
         <v>105.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24">
+      <c r="B24" s="58">
+        <v>105.3</v>
+      </c>
+      <c r="C24" s="58">
+        <v>103.5</v>
+      </c>
+      <c r="D24" s="58">
         <v>110</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="58">
         <v>106.2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="58">
         <v>91.5</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="58">
         <v>115.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="58">
         <v>86.1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="58">
         <v>110</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="58">
         <v>103.5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="58">
         <v>105.3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58">
         <v>109.9</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="58">
         <v>106</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="58">
         <v>90.8</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="58">
         <v>115.3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="58">
         <v>85.8</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="58">
         <v>108.9</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="58">
         <v>107.2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="58">
         <v>105.2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58">
         <v>110.9</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="58">
         <v>105.7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="58">
         <v>87.7</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="58">
         <v>115.6</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="58">
         <v>87.9</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="58">
         <v>113</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="58">
         <v>103.2</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="58">
         <v>105.4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58">
         <v>110.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="58">
         <v>106.4</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="58">
         <v>89.6</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="58">
         <v>115.6</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="58">
         <v>89.6</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="58">
         <v>114</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="58">
         <v>114.1</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="58">
         <v>105.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58">
         <v>110.3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="58">
         <v>106.3</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="58">
         <v>90.4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="58">
         <v>115.1</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="58">
         <v>90.6</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="58">
         <v>116.3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="58">
         <v>103.6</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="58">
         <v>105.6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58">
         <v>110.9</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="58">
         <v>107</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="58">
         <v>96.1</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="58">
         <v>114.8</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="58">
         <v>92</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="58">
         <v>119.9</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="58">
         <v>112.1</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="58">
         <v>105.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58">
         <v>110.7</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="58">
         <v>107.7</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="58">
         <v>102.1</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="58">
         <v>116.2</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="58">
         <v>96.3</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="58">
         <v>126</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="58">
         <v>96.8</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="58">
         <v>107.1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31">
+      <c r="B31" s="58">
+        <v>107.6</v>
+      </c>
+      <c r="C31" s="58">
+        <v>96.1</v>
+      </c>
+      <c r="D31" s="58">
         <v>110.9</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="58">
         <v>109</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="58">
         <v>109</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="58">
         <v>116.5</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="58">
         <v>103.3</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="58">
         <v>130.19999999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="58">
         <v>96.1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="58">
         <v>107.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58">
         <v>110.5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="58">
         <v>108.8</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="58">
         <v>117.9</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="58">
         <v>117.1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="58">
         <v>109.2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="58">
         <v>137</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="58">
         <v>104.9</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="58">
         <v>108.7</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58">
         <v>111.2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="58">
         <v>109.1</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="58">
         <v>117.1</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="58">
         <v>119.2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="58">
         <v>113.7</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="58">
         <v>139.9</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="58">
         <v>116.5</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="58">
         <v>109.6</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58">
         <v>111.4</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="58">
         <v>109</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="58">
         <v>119.7</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="58">
         <v>119.4</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="58">
         <v>118.4</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="58">
         <v>145.5</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="58">
         <v>104.8</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="58">
         <v>109.9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58">
         <v>111.8</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="58">
         <v>110.6</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="58">
         <v>123.7</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="58">
         <v>119.3</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="58">
         <v>126.3</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="58">
         <v>141.30000000000001</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="58">
         <v>109</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="58">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58">
         <v>112.8</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="58">
         <v>111.9</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="58">
         <v>129.5</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="58">
         <v>119.9</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="58">
         <v>137.5</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="58">
         <v>143.30000000000001</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="58">
         <v>109.2</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="58">
         <v>110.4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58">
         <v>113.9</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="58">
         <v>112.2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="58">
         <v>127.3</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="58">
         <v>120.6</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="58">
         <v>147.30000000000001</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="58">
         <v>144</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="58">
         <v>113.7</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="58">
         <v>110.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58">
         <v>115</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="58">
         <v>114</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="58">
         <v>132.30000000000001</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="58">
         <v>120.8</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="58">
         <v>150</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="58">
         <v>143.30000000000001</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="58">
         <v>112.2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="58">
         <v>111.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58">
         <v>115.8</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="58">
         <v>117.2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="58">
         <v>147.19999999999999</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="58">
         <v>121</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="58">
         <v>148.1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="58">
         <v>153.5</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="58">
         <v>122.2</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="58">
         <v>112.7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58">
         <v>116.3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="58">
         <v>120</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="58">
         <v>149.6</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="58">
         <v>121.8</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="58">
         <v>145.9</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="58">
         <v>158.69999999999999</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="58">
         <v>114.3</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="58">
         <v>113.8</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="J41">
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58">
         <v>121.7</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="58">
         <v>114.8</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5839,7 +6114,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5853,18 +6128,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5872,13 +6147,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -5888,81 +6163,81 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5970,10 +6245,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="27"/>
       <c r="D6">
         <v>107.4</v>
       </c>
@@ -6003,8 +6278,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7">
         <v>110.4</v>
       </c>
@@ -6034,8 +6309,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8">
         <v>109.5</v>
       </c>
@@ -6065,8 +6340,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9">
         <v>109.6</v>
       </c>
@@ -6096,8 +6371,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10">
         <v>108.6</v>
       </c>
@@ -6127,8 +6402,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11">
         <v>107.4</v>
       </c>
@@ -6158,8 +6433,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12">
         <v>107</v>
       </c>
@@ -6189,8 +6464,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <v>107.8</v>
       </c>
@@ -6220,8 +6495,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14">
         <v>108.4</v>
       </c>
@@ -6251,8 +6526,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15">
         <v>107.6</v>
       </c>
@@ -6282,8 +6557,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16">
         <v>107.6</v>
       </c>
@@ -6313,8 +6588,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17">
         <v>107.4</v>
       </c>
@@ -6344,8 +6619,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18">
         <v>106.6</v>
       </c>
@@ -6375,8 +6650,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19">
         <v>104.3</v>
       </c>
@@ -6406,10 +6681,10 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>2</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="27"/>
       <c r="D20">
         <v>105.8</v>
       </c>
@@ -6439,8 +6714,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21">
         <v>105.4</v>
       </c>
@@ -6470,8 +6745,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22">
         <v>104.3</v>
       </c>
@@ -6501,8 +6776,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23">
         <v>104.8</v>
       </c>
@@ -6532,8 +6807,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24">
         <v>104</v>
       </c>
@@ -6563,8 +6838,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25">
         <v>103.4</v>
       </c>
@@ -6594,8 +6869,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26">
         <v>104</v>
       </c>
@@ -6625,8 +6900,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27">
         <v>103.6</v>
       </c>
@@ -6656,8 +6931,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28">
         <v>102.8</v>
       </c>
@@ -6687,8 +6962,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29">
         <v>103</v>
       </c>
@@ -6718,8 +6993,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30">
         <v>102.1</v>
       </c>
@@ -6749,8 +7024,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31">
         <v>102.5</v>
       </c>
@@ -6780,8 +7055,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32">
         <v>100.2</v>
       </c>
@@ -6811,8 +7086,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33">
         <v>100.1</v>
       </c>
@@ -6842,8 +7117,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34">
         <v>100.6</v>
       </c>
@@ -6873,8 +7148,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35">
         <v>101</v>
       </c>
@@ -6904,8 +7179,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36">
         <v>102.5</v>
       </c>
@@ -6935,8 +7210,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37">
         <v>103.7</v>
       </c>
@@ -6966,8 +7241,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38">
         <v>103.8</v>
       </c>
@@ -6997,8 +7272,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39">
         <v>105</v>
       </c>
@@ -7028,8 +7303,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40">
         <v>105.6</v>
       </c>
@@ -7059,8 +7334,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="J41">
         <v>108.5</v>
       </c>
@@ -7072,96 +7347,96 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="22"/>
     </row>
   </sheetData>
@@ -7190,7 +7465,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K53"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7205,18 +7480,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="13"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7224,13 +7499,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -7240,81 +7515,81 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7322,10 +7597,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="27"/>
       <c r="D6">
         <v>101.5</v>
       </c>
@@ -7355,8 +7630,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7">
         <v>102.1</v>
       </c>
@@ -7386,8 +7661,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8">
         <v>100.4</v>
       </c>
@@ -7417,8 +7692,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9">
         <v>101.1</v>
       </c>
@@ -7448,8 +7723,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10">
         <v>100.8</v>
       </c>
@@ -7479,8 +7754,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11">
         <v>99.6</v>
       </c>
@@ -7510,8 +7785,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12">
         <v>100.2</v>
       </c>
@@ -7541,8 +7816,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <v>100.5</v>
       </c>
@@ -7572,8 +7847,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14">
         <v>100.3</v>
       </c>
@@ -7603,8 +7878,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15">
         <v>100</v>
       </c>
@@ -7634,8 +7909,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16">
         <v>100.6</v>
       </c>
@@ -7665,8 +7940,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17">
         <v>100.3</v>
       </c>
@@ -7696,8 +7971,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18">
         <v>100.7</v>
       </c>
@@ -7727,8 +8002,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19">
         <v>99.8</v>
       </c>
@@ -7758,8 +8033,8 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20">
         <v>101.9</v>
       </c>
@@ -7789,8 +8064,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21">
         <v>100.7</v>
       </c>
@@ -7820,8 +8095,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22">
         <v>99.7</v>
       </c>
@@ -7851,8 +8126,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23">
         <v>100</v>
       </c>
@@ -7882,8 +8157,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24">
         <v>99.5</v>
       </c>
@@ -7913,8 +8188,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25">
         <v>99.9</v>
       </c>
@@ -7944,8 +8219,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26">
         <v>100.9</v>
       </c>
@@ -7975,8 +8250,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27">
         <v>99.6</v>
       </c>
@@ -8006,8 +8281,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28">
         <v>99.8</v>
       </c>
@@ -8037,8 +8312,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29">
         <v>100.5</v>
       </c>
@@ -8068,8 +8343,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30">
         <v>99.8</v>
       </c>
@@ -8099,8 +8374,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31">
         <v>100.2</v>
       </c>
@@ -8130,8 +8405,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32">
         <v>99.6</v>
       </c>
@@ -8161,8 +8436,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33">
         <v>100.6</v>
       </c>
@@ -8192,8 +8467,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34">
         <v>100.2</v>
       </c>
@@ -8223,8 +8498,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35">
         <v>100.4</v>
       </c>
@@ -8254,8 +8529,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36">
         <v>100.9</v>
       </c>
@@ -8285,8 +8560,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37">
         <v>101</v>
       </c>
@@ -8316,8 +8591,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38">
         <v>101</v>
       </c>
@@ -8347,8 +8622,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39">
         <v>100.7</v>
       </c>
@@ -8378,8 +8653,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40">
         <v>100.4</v>
       </c>
@@ -8409,8 +8684,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="J41">
         <v>106.5</v>
       </c>
@@ -8422,96 +8697,96 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,164 +8938,164 @@
         <v>2</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
     </row>
     <row r="30" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/wskazniki.xlsx
+++ b/wskazniki.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\gu-schedule-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0106AAF-25E0-426C-B8D4-96C0684BC381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACB4A0-E120-4B9D-810B-BC32A6668EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3075" windowWidth="28800" windowHeight="15735" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
+    <workbookView xWindow="-94470" yWindow="10275" windowWidth="24900" windowHeight="4080" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
+    <workbookView xWindow="-85035" yWindow="11130" windowWidth="24900" windowHeight="10470" xr2:uid="{5320CA9D-AB11-4DAD-91D5-03A7A0950971}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczydło" sheetId="4" r:id="rId1"/>
@@ -18,12 +19,10 @@
     <sheet name="drogówka2" sheetId="6" r:id="rId3"/>
     <sheet name="drogówka3" sheetId="7" r:id="rId4"/>
     <sheet name="Wzorek" sheetId="3" r:id="rId5"/>
-    <sheet name="Cfg" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Cfg!$A$1:$C$8</definedName>
     <definedName name="sheetName">Liczydło!$D$2</definedName>
-    <definedName name="worksheetName">Cfg!$A$1:$A$3</definedName>
+    <definedName name="worksheetName">Liczydło!$T$1:$T$3</definedName>
     <definedName name="yearMonthStart">Liczydło!$D$4</definedName>
     <definedName name="yearMonthStop">Liczydło!$D$6</definedName>
   </definedNames>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="118">
   <si>
     <t>Rodzaj informacji: XII 2018 = 100</t>
   </si>
@@ -336,9 +335,6 @@
     <t>Tablica1</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -348,9 +344,6 @@
     <t>opis</t>
   </si>
   <si>
-    <t>Reszta</t>
-  </si>
-  <si>
     <t>cpi</t>
   </si>
   <si>
@@ -384,24 +377,72 @@
     <t>stop</t>
   </si>
   <si>
-    <t>Kwota:</t>
-  </si>
-  <si>
     <t>T?</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>[a]</t>
+  </si>
+  <si>
+    <t>[b]</t>
+  </si>
+  <si>
+    <t>[c]</t>
+  </si>
+  <si>
+    <t>[d]</t>
+  </si>
+  <si>
+    <t>[e]</t>
+  </si>
+  <si>
+    <t>[f]</t>
+  </si>
+  <si>
+    <t>[h]</t>
+  </si>
+  <si>
+    <t>[g]</t>
+  </si>
+  <si>
+    <t>kwota:</t>
+  </si>
+  <si>
+    <t>po waloryzacji:</t>
+  </si>
+  <si>
+    <t>1. wybierz z listy tablelę</t>
+  </si>
+  <si>
+    <t>2. wybierz datę start</t>
+  </si>
+  <si>
+    <t>3. wybierz datę stop</t>
+  </si>
+  <si>
+    <t>4. wpisz kowtę</t>
+  </si>
+  <si>
+    <t>Podgląd tabeli:</t>
+  </si>
+  <si>
+    <t>Krótka instrukcja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??????_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,24 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,15 +539,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -579,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -749,15 +802,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color rgb="FFD3D3D3"/>
       </right>
       <top style="thin">
@@ -795,17 +839,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
       </right>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,9 +914,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,8 +958,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -866,14 +965,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,20 +981,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
@@ -933,42 +1053,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -976,123 +1104,6 @@
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{908D5E4D-BD62-40A9-A460-7354A5A46A5A}"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF395362"/>
-          <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFD3D3D3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFD3D3D3"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1398,6 +1409,123 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF395362"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD3D3D3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD3D3D3"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1465,15 +1593,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90137</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>13937</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1496,7 +1624,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="171450"/>
+          <a:off x="171450" y="171450"/>
           <a:ext cx="985487" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1695,32 +1823,31 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}" name="Table1" displayName="Table1" ref="A5:K53" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A5:K53" xr:uid="{C0953B05-8F58-4037-9443-7E597152537B}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{300095C1-C47C-4BA6-832E-102ACFC6EFF4}" name="08.1" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6A2D816B-EE9E-4FFC-B46B-20AB911E5F4D}" name="08.9" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{07E1FDD9-4F28-4FC0-BF84-6525B98F8E13}" name="19.2" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5A014AC2-55F5-4BF0-821D-F998B7465E58}" name="23.5" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{44A49C6D-4F80-40C5-82A7-92987C3D7F6B}" name="24.1" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B0E7F45B-0773-450E-A2CB-CA5CBF362986}" name="24.4" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{157F7886-5333-41E2-B1F3-5A2B7526C95D}" name="F.42" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{561E2F7D-2D45-41DF-B289-6844C951EF99}" name="C.00" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18161802-7115-4757-8DFC-953BB5A926F4}" name="nr wskaźnika" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B765EFC9-AEE3-4D71-86EE-7381795CC40E}" name="cpi" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C2471CB6-F497-49CE-A66C-E45AF0AF80F6}" name="r" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{300095C1-C47C-4BA6-832E-102ACFC6EFF4}" name="08.1" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{6A2D816B-EE9E-4FFC-B46B-20AB911E5F4D}" name="08.9" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{07E1FDD9-4F28-4FC0-BF84-6525B98F8E13}" name="19.2" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5A014AC2-55F5-4BF0-821D-F998B7465E58}" name="23.5" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{44A49C6D-4F80-40C5-82A7-92987C3D7F6B}" name="24.1" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{B0E7F45B-0773-450E-A2CB-CA5CBF362986}" name="24.4" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{157F7886-5333-41E2-B1F3-5A2B7526C95D}" name="F.42" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{561E2F7D-2D45-41DF-B289-6844C951EF99}" name="C.00" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A5:K53" xr:uid="{0F4316CF-08F2-4FCE-9AE2-635A946B4685}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2535BA1D-9EF8-4F35-83AF-5CF7BCBA515D}" name="nr wskażnika " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{33D3730D-0C8B-4798-B3E7-5892725CD84F}" name="cpi" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B42E0919-B578-4E20-AD6B-24E2D30099A5}" name="r" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D72A65BD-7583-4A25-9E11-B5BA8423A1D0}" name="08.1" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{E434767A-51B8-41E8-95DE-2E4825648920}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{C9C4993F-8A91-447D-AD69-C6B541B7612A}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{3CE016BE-5225-46A8-A320-C00578ABF1F1}" name="23.5"/>
@@ -1734,13 +1861,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}" name="Table3" displayName="Table3" ref="A5:K53" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A5:K53" xr:uid="{4BB0EEB1-0FDE-45ED-B114-0FFCB9832D70}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8F3F222E-518B-4D27-A76E-65EE15592621}" name="nr wskażnika " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F012EAE0-2EDD-42BC-AE13-6EDB80C461CC}" name="cpi" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{968043EB-F13C-4460-83D6-9B87E4F1F8A2}" name="r" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3887EEF9-B573-42BB-B53A-A461AB3F15C6}" name="08.1" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E0B773C5-950F-41BA-92CC-0D44991105BE}" name="08.9"/>
     <tableColumn id="6" xr3:uid="{59D3EDF2-5718-4538-B830-F92452E69368}" name="19.2"/>
     <tableColumn id="7" xr3:uid="{27B86EFE-9577-4522-A915-BE1F26FADD59}" name="23.5"/>
@@ -2051,362 +2178,482 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0B08B7-03A0-4E03-B880-77414ED1D5CF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:P78"/>
+  <dimension ref="B1:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="H23" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="19" width="1.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="55" t="s">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T1" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="69" t="str">
+        <f>sheetName</f>
+        <v>Table1</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="19"/>
+      <c r="D3" s="29"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="70"/>
+      <c r="M3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="3:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="21"/>
-      <c r="D3" s="31"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="49">
-        <v>100000</v>
-      </c>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M10">
-        <v>0.5</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="D4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="71" t="str">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),1)</f>
+        <v>2020 VIII</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="29"/>
+      <c r="H5" s="72"/>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="71" t="str">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),1)</f>
+        <v>2021 VIII</v>
+      </c>
+      <c r="M6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="54">
+        <v>10000000</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="73">
+        <f ca="1">D8*L24</f>
+        <v>11013248.785854287</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="O10">
-        <f>SUM(M10:M12)</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="24"/>
-      <c r="M11">
-        <v>0.15</v>
-      </c>
-      <c r="O11">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M12">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="60">
+      <c r="H15" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="40">
         <f>(F16+F17+F24)/100</f>
         <v>0.71</v>
       </c>
-      <c r="M15">
-        <v>147.19999999999999</v>
-      </c>
-      <c r="N15">
-        <v>149.6</v>
-      </c>
-      <c r="O15">
-        <f>M15/N15</f>
-        <v>0.98395721925133683</v>
-      </c>
-      <c r="P15" s="19">
-        <f>O15*O11</f>
-        <v>0.28534759358288764</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="52" t="s">
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="51">
+      <c r="E16" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="63">
         <v>15</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),2)</f>
+        <v>109.9</v>
+      </c>
+      <c r="I16" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),2)</f>
+        <v>113.9</v>
+      </c>
+      <c r="J16" s="59">
+        <f ca="1">IF(TRIM(G16)&lt;&gt;"",I16/H16*100,"")</f>
+        <v>103.63967242948135</v>
+      </c>
+      <c r="K16" s="59">
+        <f ca="1">IF(J16&lt;&gt;"",J16*(F16/100),"")</f>
+        <v>15.545950864422203</v>
+      </c>
+      <c r="L16" s="61">
+        <f ca="1">IF(K16&lt;&gt;"",K16/100,"")</f>
+        <v>0.15545950864422203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),2)</f>
-        <v>105.3</v>
-      </c>
-      <c r="I16" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),2)</f>
-        <v>107.6</v>
-      </c>
-      <c r="J16" s="63">
-        <f ca="1">IF(G16&lt;&gt;"",I16/H16*100,"")</f>
-        <v>102.18423551756885</v>
-      </c>
-      <c r="K16" s="64"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="51">
+      <c r="E17" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="63">
         <v>6</v>
       </c>
-      <c r="G17" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),3)</f>
-        <v>103.5</v>
-      </c>
-      <c r="I17" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),3)</f>
-        <v>96.1</v>
-      </c>
-      <c r="J17" s="63">
-        <f t="shared" ref="J17:J23" ca="1" si="0">IF(G17&lt;&gt;"",I17/H17*100,"")</f>
-        <v>92.850241545893724</v>
-      </c>
-      <c r="K17" s="64">
-        <f ca="1">I17*(F17/100)</f>
-        <v>5.7659999999999991</v>
+      <c r="G17" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),3)</f>
+        <v>107.2</v>
+      </c>
+      <c r="I17" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),3)</f>
+        <v>113.7</v>
+      </c>
+      <c r="J17" s="59">
+        <f t="shared" ref="J17:J23" ca="1" si="0">IF(TRIM(G17)&lt;&gt;"",I17/H17*100,"")</f>
+        <v>106.06343283582089</v>
+      </c>
+      <c r="K17" s="59">
+        <f t="shared" ref="K17:K23" ca="1" si="1">IF(J17&lt;&gt;"",J17*(F17/100),"")</f>
+        <v>6.3638059701492535</v>
+      </c>
+      <c r="L17" s="61">
+        <f t="shared" ref="L17:L23" ca="1" si="2">IF(K17&lt;&gt;"",K17/100,"")</f>
+        <v>6.3638059701492541E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="63">
         <v>13</v>
       </c>
-      <c r="G18" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),4)</f>
-        <v>110.6</v>
-      </c>
-      <c r="I18" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),4)</f>
-        <v>110.9</v>
-      </c>
-      <c r="J18" s="63">
+      <c r="G18" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),4)</f>
+        <v>109.9</v>
+      </c>
+      <c r="I18" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),4)</f>
+        <v>113.9</v>
+      </c>
+      <c r="J18" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>100.27124773960219</v>
-      </c>
-      <c r="K18" s="64"/>
+        <v>103.63967242948135</v>
+      </c>
+      <c r="K18" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.473157415832576</v>
+      </c>
+      <c r="L18" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13473157415832576</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),5)</f>
-        <v>106.3</v>
-      </c>
-      <c r="I19" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),5)</f>
-        <v>109</v>
-      </c>
-      <c r="J19" s="63" t="str">
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),5)</f>
+        <v>106</v>
+      </c>
+      <c r="I19" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),5)</f>
+        <v>112.2</v>
+      </c>
+      <c r="J19" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="64"/>
+      <c r="K19" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="52" t="s">
+      <c r="C20" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="63">
         <v>4</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),6)</f>
-        <v>88.1</v>
-      </c>
-      <c r="I20" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),6)</f>
-        <v>109</v>
-      </c>
-      <c r="J20" s="63">
+      <c r="G20" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),6)</f>
+        <v>90.8</v>
+      </c>
+      <c r="I20" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),6)</f>
+        <v>127.3</v>
+      </c>
+      <c r="J20" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>123.72304199772985</v>
-      </c>
-      <c r="K20" s="64">
-        <f ca="1">I20*(F20/100)</f>
-        <v>4.3600000000000003</v>
+        <v>140.19823788546256</v>
+      </c>
+      <c r="K20" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6079295154185029</v>
+      </c>
+      <c r="L20" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6079295154185027E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="63">
         <v>1</v>
       </c>
-      <c r="G21" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),7)</f>
-        <v>115.2</v>
-      </c>
-      <c r="I21" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),7)</f>
-        <v>116.5</v>
-      </c>
-      <c r="J21" s="63">
+      <c r="G21" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),7)</f>
+        <v>115.3</v>
+      </c>
+      <c r="I21" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),7)</f>
+        <v>120.6</v>
+      </c>
+      <c r="J21" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>101.12847222222221</v>
-      </c>
-      <c r="K21" s="64"/>
+        <v>104.59670424978317</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0459670424978318</v>
+      </c>
+      <c r="L21" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0459670424978317E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="63">
         <v>9</v>
       </c>
-      <c r="G22" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>87.2</v>
-      </c>
-      <c r="I22" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>103.3</v>
-      </c>
-      <c r="J22" s="63">
+      <c r="G22" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),8)</f>
+        <v>85.8</v>
+      </c>
+      <c r="I22" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),8)</f>
+        <v>147.30000000000001</v>
+      </c>
+      <c r="J22" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>118.46330275229357</v>
-      </c>
-      <c r="K22" s="64"/>
+        <v>171.67832167832168</v>
+      </c>
+      <c r="K22" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.45104895104895</v>
+      </c>
+      <c r="L22" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15451048951048951</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="52" t="s">
+      <c r="C23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="63">
         <v>2</v>
       </c>
-      <c r="G23" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika]),8)</f>
-        <v>87.2</v>
-      </c>
-      <c r="I23" s="60">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika]),8)</f>
-        <v>103.3</v>
-      </c>
-      <c r="J23" s="63">
+      <c r="G23" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),9)</f>
+        <v>108.9</v>
+      </c>
+      <c r="I23" s="40">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),9)</f>
+        <v>144</v>
+      </c>
+      <c r="J23" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>118.46330275229357</v>
-      </c>
-      <c r="K23" s="64"/>
+        <v>132.2314049586777</v>
+      </c>
+      <c r="K23" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6446280991735542</v>
+      </c>
+      <c r="L23" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6446280991735543E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="32">
+      <c r="E24" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="64">
         <v>50</v>
       </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="62">
+        <f ca="1">SUM(L16:L23)+(F24/100)</f>
+        <v>1.1013248785854288</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="33">
+      <c r="F25" s="65">
         <f>SUM(F16:F24)</f>
         <v>100</v>
       </c>
+      <c r="L25" s="58"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="68" t="str">
+        <f>sheetName</f>
+        <v>Table1</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="str" cm="1">
@@ -2967,11 +3214,11 @@
       </c>
       <c r="C43">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f ca="1"/>
@@ -3013,11 +3260,11 @@
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f ca="1"/>
@@ -3059,11 +3306,11 @@
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f ca="1"/>
@@ -3105,11 +3352,11 @@
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <f ca="1"/>
@@ -3151,11 +3398,11 @@
       </c>
       <c r="C47">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f ca="1"/>
@@ -3197,11 +3444,11 @@
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f ca="1"/>
@@ -3243,11 +3490,11 @@
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f ca="1"/>
@@ -3289,11 +3536,11 @@
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>0</v>
+        <v>109.9</v>
       </c>
       <c r="D50">
         <f ca="1"/>
-        <v>0</v>
+        <v>107.2</v>
       </c>
       <c r="E50">
         <f ca="1"/>
@@ -3565,11 +3812,11 @@
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>107.6</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f ca="1"/>
-        <v>96.1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f ca="1"/>
@@ -3841,11 +4088,11 @@
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>0</v>
+        <v>113.9</v>
       </c>
       <c r="D62">
         <f ca="1"/>
-        <v>0</v>
+        <v>113.7</v>
       </c>
       <c r="E62">
         <f ca="1"/>
@@ -4617,6 +4864,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Komunikat" error="Wybierz wartość z listy" sqref="D2" xr:uid="{B64CF689-5C6C-4FAC-A3C1-2C8DAEFC291E}">
       <formula1>worksheetName</formula1>
@@ -4635,8 +4883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF672A4E-7C03-430D-A0EE-15A06E60C8E0}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,13 +4927,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
@@ -4692,1401 +4943,1377 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38">
+        <v>101.5</v>
+      </c>
+      <c r="E6" s="38">
+        <v>100.7</v>
+      </c>
+      <c r="F6" s="38">
+        <v>101.1</v>
+      </c>
+      <c r="G6" s="38">
+        <v>102</v>
+      </c>
+      <c r="H6" s="38">
+        <v>100.3</v>
+      </c>
+      <c r="I6" s="38">
+        <v>98.6</v>
+      </c>
+      <c r="J6" s="38">
+        <v>89.7</v>
+      </c>
+      <c r="K6" s="38">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <v>103.6</v>
+      </c>
+      <c r="E7" s="38">
+        <v>100.3</v>
+      </c>
+      <c r="F7" s="38">
+        <v>107</v>
+      </c>
+      <c r="G7" s="38">
+        <v>102.8</v>
+      </c>
+      <c r="H7" s="38">
+        <v>98.8</v>
+      </c>
+      <c r="I7" s="38">
+        <v>103.9</v>
+      </c>
+      <c r="J7" s="38">
+        <v>88.3</v>
+      </c>
+      <c r="K7" s="38">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38">
+        <v>104</v>
+      </c>
+      <c r="E8" s="38">
+        <v>99.7</v>
+      </c>
+      <c r="F8" s="38">
+        <v>109.4</v>
+      </c>
+      <c r="G8" s="38">
+        <v>104.5</v>
+      </c>
+      <c r="H8" s="38">
+        <v>97.8</v>
+      </c>
+      <c r="I8" s="38">
+        <v>103.9</v>
+      </c>
+      <c r="J8" s="38">
+        <v>91.2</v>
+      </c>
+      <c r="K8" s="38">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>105.1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>99.3</v>
+      </c>
+      <c r="F9" s="38">
+        <v>113.6</v>
+      </c>
+      <c r="G9" s="38">
+        <v>106.6</v>
+      </c>
+      <c r="H9" s="38">
+        <v>98</v>
+      </c>
+      <c r="I9" s="38">
+        <v>103.8</v>
+      </c>
+      <c r="J9" s="38">
         <v>96</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="K9" s="38">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
+        <v>105.9</v>
+      </c>
+      <c r="E10" s="38">
+        <v>100.5</v>
+      </c>
+      <c r="F10" s="38">
+        <v>114.2</v>
+      </c>
+      <c r="G10" s="38">
+        <v>107.3</v>
+      </c>
+      <c r="H10" s="38">
+        <v>98.1</v>
+      </c>
+      <c r="I10" s="38">
+        <v>99.6</v>
+      </c>
+      <c r="J10" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="K10" s="38">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>105.5</v>
+      </c>
+      <c r="E11" s="38">
+        <v>99.8</v>
+      </c>
+      <c r="F11" s="38">
+        <v>107.6</v>
+      </c>
+      <c r="G11" s="38">
+        <v>107.4</v>
+      </c>
+      <c r="H11" s="38">
+        <v>98</v>
+      </c>
+      <c r="I11" s="38">
+        <v>97.8</v>
+      </c>
+      <c r="J11" s="38">
+        <v>98.4</v>
+      </c>
+      <c r="K11" s="38">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38">
+        <v>105.7</v>
+      </c>
+      <c r="E12" s="38">
+        <v>101.3</v>
+      </c>
+      <c r="F12" s="38">
+        <v>109.8</v>
+      </c>
+      <c r="G12" s="38">
+        <v>107.5</v>
+      </c>
+      <c r="H12" s="38">
+        <v>96.5</v>
+      </c>
+      <c r="I12" s="38">
+        <v>98.8</v>
+      </c>
+      <c r="J12" s="38">
+        <v>100.3</v>
+      </c>
+      <c r="K12" s="38">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38">
+        <v>106.2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>102.1</v>
+      </c>
+      <c r="F13" s="38">
+        <v>109.5</v>
+      </c>
+      <c r="G13" s="38">
+        <v>107.7</v>
+      </c>
+      <c r="H13" s="38">
+        <v>97.5</v>
+      </c>
+      <c r="I13" s="38">
+        <v>100</v>
+      </c>
+      <c r="J13" s="38">
+        <v>103.6</v>
+      </c>
+      <c r="K13" s="38">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
+        <v>106.5</v>
+      </c>
+      <c r="E14" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="F14" s="38">
+        <v>112.2</v>
+      </c>
+      <c r="G14" s="38">
+        <v>107.8</v>
+      </c>
+      <c r="H14" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I14" s="38">
+        <v>102.6</v>
+      </c>
+      <c r="J14" s="38">
+        <v>99.6</v>
+      </c>
+      <c r="K14" s="38">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
+        <v>106.5</v>
+      </c>
+      <c r="E15" s="38">
+        <v>102.4</v>
+      </c>
+      <c r="F15" s="38">
+        <v>108.8</v>
+      </c>
+      <c r="G15" s="38">
+        <v>108</v>
+      </c>
+      <c r="H15" s="38">
+        <v>93.3</v>
+      </c>
+      <c r="I15" s="38">
+        <v>101.6</v>
+      </c>
+      <c r="J15" s="38">
+        <v>107.2</v>
+      </c>
+      <c r="K15" s="38">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <v>107.1</v>
+      </c>
+      <c r="E16" s="38">
+        <v>102.9</v>
+      </c>
+      <c r="F16" s="38">
+        <v>107.9</v>
+      </c>
+      <c r="G16" s="38">
+        <v>108.3</v>
+      </c>
+      <c r="H16" s="38">
+        <v>89.8</v>
+      </c>
+      <c r="I16" s="38">
+        <v>101.2</v>
+      </c>
+      <c r="J16" s="38">
+        <v>101.1</v>
+      </c>
+      <c r="K16" s="38">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
+        <v>107.4</v>
+      </c>
+      <c r="E17" s="38">
+        <v>103</v>
+      </c>
+      <c r="F17" s="38">
+        <v>110</v>
+      </c>
+      <c r="G17" s="38">
+        <v>108.6</v>
+      </c>
+      <c r="H17" s="38">
+        <v>87.1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>102.2</v>
+      </c>
+      <c r="J17" s="38">
+        <v>105.5</v>
+      </c>
+      <c r="K17" s="38">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
+        <v>108.2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>105.1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>109</v>
+      </c>
+      <c r="G18" s="38">
+        <v>109.5</v>
+      </c>
+      <c r="H18" s="38">
+        <v>88.1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>102</v>
+      </c>
+      <c r="J18" s="38">
+        <v>93.6</v>
+      </c>
+      <c r="K18" s="38">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
+        <v>108</v>
+      </c>
+      <c r="E19" s="38">
+        <v>104.9</v>
+      </c>
+      <c r="F19" s="38">
+        <v>103.6</v>
+      </c>
+      <c r="G19" s="38">
+        <v>110.4</v>
+      </c>
+      <c r="H19" s="38">
+        <v>87.4</v>
+      </c>
+      <c r="I19" s="38">
+        <v>101.1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>95.1</v>
+      </c>
+      <c r="K19" s="38">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38">
+        <v>110.1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>105</v>
+      </c>
+      <c r="F20" s="38">
+        <v>88.8</v>
+      </c>
+      <c r="G20" s="38">
+        <v>113.2</v>
+      </c>
+      <c r="H20" s="38">
         <v>91</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="I20" s="38">
+        <v>95.9</v>
+      </c>
+      <c r="J20" s="38">
+        <v>99.8</v>
+      </c>
+      <c r="K20" s="38">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38">
+        <v>110.9</v>
+      </c>
+      <c r="E21" s="38">
+        <v>105.6</v>
+      </c>
+      <c r="F21" s="38">
+        <v>75.5</v>
+      </c>
+      <c r="G21" s="38">
+        <v>115.1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>92.2</v>
+      </c>
+      <c r="I21" s="38">
+        <v>98.3</v>
+      </c>
+      <c r="J21" s="38">
+        <v>106.6</v>
+      </c>
+      <c r="K21" s="38">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38">
+        <v>110.6</v>
+      </c>
+      <c r="E22" s="38">
+        <v>105.8</v>
+      </c>
+      <c r="F22" s="38">
+        <v>78.2</v>
+      </c>
+      <c r="G22" s="38">
+        <v>115.9</v>
+      </c>
+      <c r="H22" s="38">
+        <v>90.6</v>
+      </c>
+      <c r="I22" s="38">
+        <v>100.7</v>
+      </c>
+      <c r="J22" s="38">
+        <v>97.4</v>
+      </c>
+      <c r="K22" s="38">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38">
+        <v>110.6</v>
+      </c>
+      <c r="E23" s="38">
+        <v>106.3</v>
+      </c>
+      <c r="F23" s="38">
+        <v>88.1</v>
+      </c>
+      <c r="G23" s="38">
+        <v>115.2</v>
+      </c>
+      <c r="H23" s="38">
+        <v>87.2</v>
+      </c>
+      <c r="I23" s="38">
+        <v>103.3</v>
+      </c>
+      <c r="J23" s="38">
+        <v>102.2</v>
+      </c>
+      <c r="K23" s="38">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38">
+        <v>110</v>
+      </c>
+      <c r="E24" s="38">
+        <v>106.2</v>
+      </c>
+      <c r="F24" s="38">
+        <v>91.5</v>
+      </c>
+      <c r="G24" s="38">
+        <v>115.1</v>
+      </c>
+      <c r="H24" s="38">
+        <v>86.1</v>
+      </c>
+      <c r="I24" s="38">
+        <v>110</v>
+      </c>
+      <c r="J24" s="38">
+        <v>103.5</v>
+      </c>
+      <c r="K24" s="38">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="38">
+        <v>109.9</v>
+      </c>
+      <c r="C25" s="38">
+        <v>107.2</v>
+      </c>
+      <c r="D25" s="38">
+        <v>109.9</v>
+      </c>
+      <c r="E25" s="38">
+        <v>106</v>
+      </c>
+      <c r="F25" s="38">
+        <v>90.8</v>
+      </c>
+      <c r="G25" s="38">
+        <v>115.3</v>
+      </c>
+      <c r="H25" s="38">
+        <v>85.8</v>
+      </c>
+      <c r="I25" s="38">
+        <v>108.9</v>
+      </c>
+      <c r="J25" s="38">
+        <v>107.2</v>
+      </c>
+      <c r="K25" s="38">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38">
+        <v>110.9</v>
+      </c>
+      <c r="E26" s="38">
+        <v>105.7</v>
+      </c>
+      <c r="F26" s="38">
+        <v>87.7</v>
+      </c>
+      <c r="G26" s="38">
+        <v>115.6</v>
+      </c>
+      <c r="H26" s="38">
+        <v>87.9</v>
+      </c>
+      <c r="I26" s="38">
+        <v>113</v>
+      </c>
+      <c r="J26" s="38">
+        <v>103.2</v>
+      </c>
+      <c r="K26" s="38">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38">
+        <v>110.5</v>
+      </c>
+      <c r="E27" s="38">
+        <v>106.4</v>
+      </c>
+      <c r="F27" s="38">
+        <v>89.6</v>
+      </c>
+      <c r="G27" s="38">
+        <v>115.6</v>
+      </c>
+      <c r="H27" s="38">
+        <v>89.6</v>
+      </c>
+      <c r="I27" s="38">
+        <v>114</v>
+      </c>
+      <c r="J27" s="38">
+        <v>114.1</v>
+      </c>
+      <c r="K27" s="38">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38">
+        <v>110.3</v>
+      </c>
+      <c r="E28" s="38">
+        <v>106.3</v>
+      </c>
+      <c r="F28" s="38">
+        <v>90.4</v>
+      </c>
+      <c r="G28" s="38">
+        <v>115.1</v>
+      </c>
+      <c r="H28" s="38">
+        <v>90.6</v>
+      </c>
+      <c r="I28" s="38">
+        <v>116.3</v>
+      </c>
+      <c r="J28" s="38">
+        <v>103.6</v>
+      </c>
+      <c r="K28" s="38">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38">
+        <v>110.9</v>
+      </c>
+      <c r="E29" s="38">
+        <v>107</v>
+      </c>
+      <c r="F29" s="38">
+        <v>96.1</v>
+      </c>
+      <c r="G29" s="38">
+        <v>114.8</v>
+      </c>
+      <c r="H29" s="38">
         <v>92</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="58">
-        <v>1</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58">
-        <v>101.5</v>
-      </c>
-      <c r="E6" s="58">
-        <v>100.7</v>
-      </c>
-      <c r="F6" s="58">
-        <v>101.1</v>
-      </c>
-      <c r="G6" s="58">
-        <v>102</v>
-      </c>
-      <c r="H6" s="58">
-        <v>100.3</v>
-      </c>
-      <c r="I6" s="58">
-        <v>98.6</v>
-      </c>
-      <c r="J6" s="58">
-        <v>89.7</v>
-      </c>
-      <c r="K6" s="58">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58">
-        <v>103.6</v>
-      </c>
-      <c r="E7" s="58">
-        <v>100.3</v>
-      </c>
-      <c r="F7" s="58">
-        <v>107</v>
-      </c>
-      <c r="G7" s="58">
-        <v>102.8</v>
-      </c>
-      <c r="H7" s="58">
-        <v>98.8</v>
-      </c>
-      <c r="I7" s="58">
-        <v>103.9</v>
-      </c>
-      <c r="J7" s="58">
-        <v>88.3</v>
-      </c>
-      <c r="K7" s="58">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58">
-        <v>104</v>
-      </c>
-      <c r="E8" s="58">
-        <v>99.7</v>
-      </c>
-      <c r="F8" s="58">
-        <v>109.4</v>
-      </c>
-      <c r="G8" s="58">
-        <v>104.5</v>
-      </c>
-      <c r="H8" s="58">
-        <v>97.8</v>
-      </c>
-      <c r="I8" s="58">
-        <v>103.9</v>
-      </c>
-      <c r="J8" s="58">
-        <v>91.2</v>
-      </c>
-      <c r="K8" s="58">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58">
-        <v>105.1</v>
-      </c>
-      <c r="E9" s="58">
-        <v>99.3</v>
-      </c>
-      <c r="F9" s="58">
-        <v>113.6</v>
-      </c>
-      <c r="G9" s="58">
-        <v>106.6</v>
-      </c>
-      <c r="H9" s="58">
-        <v>98</v>
-      </c>
-      <c r="I9" s="58">
-        <v>103.8</v>
-      </c>
-      <c r="J9" s="58">
-        <v>96</v>
-      </c>
-      <c r="K9" s="58">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58">
-        <v>105.9</v>
-      </c>
-      <c r="E10" s="58">
-        <v>100.5</v>
-      </c>
-      <c r="F10" s="58">
-        <v>114.2</v>
-      </c>
-      <c r="G10" s="58">
-        <v>107.3</v>
-      </c>
-      <c r="H10" s="58">
-        <v>98.1</v>
-      </c>
-      <c r="I10" s="58">
-        <v>99.6</v>
-      </c>
-      <c r="J10" s="58">
-        <v>102.3</v>
-      </c>
-      <c r="K10" s="58">
-        <v>101.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58">
-        <v>105.5</v>
-      </c>
-      <c r="E11" s="58">
-        <v>99.8</v>
-      </c>
-      <c r="F11" s="58">
+      <c r="I29" s="38">
+        <v>119.9</v>
+      </c>
+      <c r="J29" s="38">
+        <v>112.1</v>
+      </c>
+      <c r="K29" s="38">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38">
+        <v>110.7</v>
+      </c>
+      <c r="E30" s="38">
+        <v>107.7</v>
+      </c>
+      <c r="F30" s="38">
+        <v>102.1</v>
+      </c>
+      <c r="G30" s="38">
+        <v>116.2</v>
+      </c>
+      <c r="H30" s="38">
+        <v>96.3</v>
+      </c>
+      <c r="I30" s="38">
+        <v>126</v>
+      </c>
+      <c r="J30" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="K30" s="38">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38">
+        <v>110.9</v>
+      </c>
+      <c r="E31" s="38">
+        <v>109</v>
+      </c>
+      <c r="F31" s="38">
+        <v>109</v>
+      </c>
+      <c r="G31" s="38">
+        <v>116.5</v>
+      </c>
+      <c r="H31" s="38">
+        <v>103.3</v>
+      </c>
+      <c r="I31" s="38">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="J31" s="38">
+        <v>96.1</v>
+      </c>
+      <c r="K31" s="38">
         <v>107.6</v>
       </c>
-      <c r="G11" s="58">
-        <v>107.4</v>
-      </c>
-      <c r="H11" s="58">
-        <v>98</v>
-      </c>
-      <c r="I11" s="58">
-        <v>97.8</v>
-      </c>
-      <c r="J11" s="58">
-        <v>98.4</v>
-      </c>
-      <c r="K11" s="58">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="58">
-        <v>105.7</v>
-      </c>
-      <c r="E12" s="58">
-        <v>101.3</v>
-      </c>
-      <c r="F12" s="58">
-        <v>109.8</v>
-      </c>
-      <c r="G12" s="58">
-        <v>107.5</v>
-      </c>
-      <c r="H12" s="58">
-        <v>96.5</v>
-      </c>
-      <c r="I12" s="58">
-        <v>98.8</v>
-      </c>
-      <c r="J12" s="58">
-        <v>100.3</v>
-      </c>
-      <c r="K12" s="58">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58">
-        <v>106.2</v>
-      </c>
-      <c r="E13" s="58">
-        <v>102.1</v>
-      </c>
-      <c r="F13" s="58">
-        <v>109.5</v>
-      </c>
-      <c r="G13" s="58">
-        <v>107.7</v>
-      </c>
-      <c r="H13" s="58">
-        <v>97.5</v>
-      </c>
-      <c r="I13" s="58">
-        <v>100</v>
-      </c>
-      <c r="J13" s="58">
-        <v>103.6</v>
-      </c>
-      <c r="K13" s="58">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58">
-        <v>106.5</v>
-      </c>
-      <c r="E14" s="58">
-        <v>102.3</v>
-      </c>
-      <c r="F14" s="58">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38">
+        <v>110.5</v>
+      </c>
+      <c r="E32" s="38">
+        <v>108.8</v>
+      </c>
+      <c r="F32" s="38">
+        <v>117.9</v>
+      </c>
+      <c r="G32" s="38">
+        <v>117.1</v>
+      </c>
+      <c r="H32" s="38">
+        <v>109.2</v>
+      </c>
+      <c r="I32" s="38">
+        <v>137</v>
+      </c>
+      <c r="J32" s="38">
+        <v>104.9</v>
+      </c>
+      <c r="K32" s="38">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38">
+        <v>111.2</v>
+      </c>
+      <c r="E33" s="38">
+        <v>109.1</v>
+      </c>
+      <c r="F33" s="38">
+        <v>117.1</v>
+      </c>
+      <c r="G33" s="38">
+        <v>119.2</v>
+      </c>
+      <c r="H33" s="38">
+        <v>113.7</v>
+      </c>
+      <c r="I33" s="38">
+        <v>139.9</v>
+      </c>
+      <c r="J33" s="38">
+        <v>116.5</v>
+      </c>
+      <c r="K33" s="38">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38">
+        <v>111.4</v>
+      </c>
+      <c r="E34" s="38">
+        <v>109</v>
+      </c>
+      <c r="F34" s="38">
+        <v>119.7</v>
+      </c>
+      <c r="G34" s="38">
+        <v>119.4</v>
+      </c>
+      <c r="H34" s="38">
+        <v>118.4</v>
+      </c>
+      <c r="I34" s="38">
+        <v>145.5</v>
+      </c>
+      <c r="J34" s="38">
+        <v>104.8</v>
+      </c>
+      <c r="K34" s="38">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38">
+        <v>111.8</v>
+      </c>
+      <c r="E35" s="38">
+        <v>110.6</v>
+      </c>
+      <c r="F35" s="38">
+        <v>123.7</v>
+      </c>
+      <c r="G35" s="38">
+        <v>119.3</v>
+      </c>
+      <c r="H35" s="38">
+        <v>126.3</v>
+      </c>
+      <c r="I35" s="38">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="J35" s="38">
+        <v>109</v>
+      </c>
+      <c r="K35" s="38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38">
+        <v>112.8</v>
+      </c>
+      <c r="E36" s="38">
+        <v>111.9</v>
+      </c>
+      <c r="F36" s="38">
+        <v>129.5</v>
+      </c>
+      <c r="G36" s="38">
+        <v>119.9</v>
+      </c>
+      <c r="H36" s="38">
+        <v>137.5</v>
+      </c>
+      <c r="I36" s="38">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="J36" s="38">
+        <v>109.2</v>
+      </c>
+      <c r="K36" s="38">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="38">
+        <v>113.9</v>
+      </c>
+      <c r="C37" s="38">
+        <v>113.7</v>
+      </c>
+      <c r="D37" s="38">
+        <v>113.9</v>
+      </c>
+      <c r="E37" s="38">
         <v>112.2</v>
       </c>
-      <c r="G14" s="58">
-        <v>107.8</v>
-      </c>
-      <c r="H14" s="58">
-        <v>96.8</v>
-      </c>
-      <c r="I14" s="58">
-        <v>102.6</v>
-      </c>
-      <c r="J14" s="58">
-        <v>99.6</v>
-      </c>
-      <c r="K14" s="58">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58">
-        <v>106.5</v>
-      </c>
-      <c r="E15" s="58">
-        <v>102.4</v>
-      </c>
-      <c r="F15" s="58">
-        <v>108.8</v>
-      </c>
-      <c r="G15" s="58">
-        <v>108</v>
-      </c>
-      <c r="H15" s="58">
-        <v>93.3</v>
-      </c>
-      <c r="I15" s="58">
-        <v>101.6</v>
-      </c>
-      <c r="J15" s="58">
-        <v>107.2</v>
-      </c>
-      <c r="K15" s="58">
-        <v>102.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58">
-        <v>107.1</v>
-      </c>
-      <c r="E16" s="58">
-        <v>102.9</v>
-      </c>
-      <c r="F16" s="58">
-        <v>107.9</v>
-      </c>
-      <c r="G16" s="58">
-        <v>108.3</v>
-      </c>
-      <c r="H16" s="58">
-        <v>89.8</v>
-      </c>
-      <c r="I16" s="58">
-        <v>101.2</v>
-      </c>
-      <c r="J16" s="58">
-        <v>101.1</v>
-      </c>
-      <c r="K16" s="58">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58">
-        <v>107.4</v>
-      </c>
-      <c r="E17" s="58">
-        <v>103</v>
-      </c>
-      <c r="F17" s="58">
-        <v>110</v>
-      </c>
-      <c r="G17" s="58">
-        <v>108.6</v>
-      </c>
-      <c r="H17" s="58">
-        <v>87.1</v>
-      </c>
-      <c r="I17" s="58">
-        <v>102.2</v>
-      </c>
-      <c r="J17" s="58">
-        <v>105.5</v>
-      </c>
-      <c r="K17" s="58">
-        <v>103.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C18" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D18" s="58">
-        <v>108.2</v>
-      </c>
-      <c r="E18" s="58">
-        <v>105.1</v>
-      </c>
-      <c r="F18" s="58">
-        <v>109</v>
-      </c>
-      <c r="G18" s="58">
-        <v>109.5</v>
-      </c>
-      <c r="H18" s="58">
-        <v>88.1</v>
-      </c>
-      <c r="I18" s="58">
-        <v>102</v>
-      </c>
-      <c r="J18" s="58">
-        <v>93.6</v>
-      </c>
-      <c r="K18" s="58">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C19" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D19" s="58">
-        <v>108</v>
-      </c>
-      <c r="E19" s="58">
-        <v>104.9</v>
-      </c>
-      <c r="F19" s="58">
-        <v>103.6</v>
-      </c>
-      <c r="G19" s="58">
-        <v>110.4</v>
-      </c>
-      <c r="H19" s="58">
-        <v>87.4</v>
-      </c>
-      <c r="I19" s="58">
-        <v>101.1</v>
-      </c>
-      <c r="J19" s="58">
-        <v>95.1</v>
-      </c>
-      <c r="K19" s="58">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C20" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D20" s="58">
-        <v>110.1</v>
-      </c>
-      <c r="E20" s="58">
-        <v>105</v>
-      </c>
-      <c r="F20" s="58">
-        <v>88.8</v>
-      </c>
-      <c r="G20" s="58">
-        <v>113.2</v>
-      </c>
-      <c r="H20" s="58">
-        <v>91</v>
-      </c>
-      <c r="I20" s="58">
-        <v>95.9</v>
-      </c>
-      <c r="J20" s="58">
-        <v>99.8</v>
-      </c>
-      <c r="K20" s="58">
-        <v>105.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C21" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D21" s="58">
-        <v>110.9</v>
-      </c>
-      <c r="E21" s="58">
-        <v>105.6</v>
-      </c>
-      <c r="F21" s="58">
-        <v>75.5</v>
-      </c>
-      <c r="G21" s="58">
-        <v>115.1</v>
-      </c>
-      <c r="H21" s="58">
-        <v>92.2</v>
-      </c>
-      <c r="I21" s="58">
-        <v>98.3</v>
-      </c>
-      <c r="J21" s="58">
-        <v>106.6</v>
-      </c>
-      <c r="K21" s="58">
-        <v>105.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C22" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D22" s="58">
-        <v>110.6</v>
-      </c>
-      <c r="E22" s="58">
-        <v>105.8</v>
-      </c>
-      <c r="F22" s="58">
-        <v>78.2</v>
-      </c>
-      <c r="G22" s="58">
-        <v>115.9</v>
-      </c>
-      <c r="H22" s="58">
-        <v>90.6</v>
-      </c>
-      <c r="I22" s="58">
-        <v>100.7</v>
-      </c>
-      <c r="J22" s="58">
-        <v>97.4</v>
-      </c>
-      <c r="K22" s="58">
-        <v>104.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C23" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D23" s="58">
-        <v>110.6</v>
-      </c>
-      <c r="E23" s="58">
-        <v>106.3</v>
-      </c>
-      <c r="F23" s="58">
-        <v>88.1</v>
-      </c>
-      <c r="G23" s="58">
-        <v>115.2</v>
-      </c>
-      <c r="H23" s="58">
-        <v>87.2</v>
-      </c>
-      <c r="I23" s="58">
-        <v>103.3</v>
-      </c>
-      <c r="J23" s="58">
-        <v>102.2</v>
-      </c>
-      <c r="K23" s="58">
-        <v>105.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="58">
-        <v>105.3</v>
-      </c>
-      <c r="C24" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="D24" s="58">
-        <v>110</v>
-      </c>
-      <c r="E24" s="58">
-        <v>106.2</v>
-      </c>
-      <c r="F24" s="58">
-        <v>91.5</v>
-      </c>
-      <c r="G24" s="58">
-        <v>115.1</v>
-      </c>
-      <c r="H24" s="58">
-        <v>86.1</v>
-      </c>
-      <c r="I24" s="58">
-        <v>110</v>
-      </c>
-      <c r="J24" s="58">
-        <v>103.5</v>
-      </c>
-      <c r="K24" s="58">
-        <v>105.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58">
-        <v>109.9</v>
-      </c>
-      <c r="E25" s="58">
-        <v>106</v>
-      </c>
-      <c r="F25" s="58">
-        <v>90.8</v>
-      </c>
-      <c r="G25" s="58">
-        <v>115.3</v>
-      </c>
-      <c r="H25" s="58">
-        <v>85.8</v>
-      </c>
-      <c r="I25" s="58">
-        <v>108.9</v>
-      </c>
-      <c r="J25" s="58">
-        <v>107.2</v>
-      </c>
-      <c r="K25" s="58">
-        <v>105.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58">
-        <v>110.9</v>
-      </c>
-      <c r="E26" s="58">
-        <v>105.7</v>
-      </c>
-      <c r="F26" s="58">
-        <v>87.7</v>
-      </c>
-      <c r="G26" s="58">
-        <v>115.6</v>
-      </c>
-      <c r="H26" s="58">
-        <v>87.9</v>
-      </c>
-      <c r="I26" s="58">
-        <v>113</v>
-      </c>
-      <c r="J26" s="58">
-        <v>103.2</v>
-      </c>
-      <c r="K26" s="58">
-        <v>105.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58">
-        <v>110.5</v>
-      </c>
-      <c r="E27" s="58">
-        <v>106.4</v>
-      </c>
-      <c r="F27" s="58">
-        <v>89.6</v>
-      </c>
-      <c r="G27" s="58">
-        <v>115.6</v>
-      </c>
-      <c r="H27" s="58">
-        <v>89.6</v>
-      </c>
-      <c r="I27" s="58">
+      <c r="F37" s="38">
+        <v>127.3</v>
+      </c>
+      <c r="G37" s="38">
+        <v>120.6</v>
+      </c>
+      <c r="H37" s="38">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="I37" s="38">
+        <v>144</v>
+      </c>
+      <c r="J37" s="38">
+        <v>113.7</v>
+      </c>
+      <c r="K37" s="38">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38">
+        <v>115</v>
+      </c>
+      <c r="E38" s="38">
         <v>114</v>
       </c>
-      <c r="J27" s="58">
-        <v>114.1</v>
-      </c>
-      <c r="K27" s="58">
-        <v>105.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58">
-        <v>110.3</v>
-      </c>
-      <c r="E28" s="58">
-        <v>106.3</v>
-      </c>
-      <c r="F28" s="58">
-        <v>90.4</v>
-      </c>
-      <c r="G28" s="58">
-        <v>115.1</v>
-      </c>
-      <c r="H28" s="58">
-        <v>90.6</v>
-      </c>
-      <c r="I28" s="58">
+      <c r="F38" s="38">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G38" s="38">
+        <v>120.8</v>
+      </c>
+      <c r="H38" s="38">
+        <v>150</v>
+      </c>
+      <c r="I38" s="38">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="J38" s="38">
+        <v>112.2</v>
+      </c>
+      <c r="K38" s="38">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38">
+        <v>115.8</v>
+      </c>
+      <c r="E39" s="38">
+        <v>117.2</v>
+      </c>
+      <c r="F39" s="38">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="G39" s="38">
+        <v>121</v>
+      </c>
+      <c r="H39" s="38">
+        <v>148.1</v>
+      </c>
+      <c r="I39" s="38">
+        <v>153.5</v>
+      </c>
+      <c r="J39" s="38">
+        <v>122.2</v>
+      </c>
+      <c r="K39" s="38">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38">
         <v>116.3</v>
       </c>
-      <c r="J28" s="58">
-        <v>103.6</v>
-      </c>
-      <c r="K28" s="58">
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58">
-        <v>110.9</v>
-      </c>
-      <c r="E29" s="58">
-        <v>107</v>
-      </c>
-      <c r="F29" s="58">
-        <v>96.1</v>
-      </c>
-      <c r="G29" s="58">
+      <c r="E40" s="38">
+        <v>120</v>
+      </c>
+      <c r="F40" s="38">
+        <v>149.6</v>
+      </c>
+      <c r="G40" s="38">
+        <v>121.8</v>
+      </c>
+      <c r="H40" s="38">
+        <v>145.9</v>
+      </c>
+      <c r="I40" s="38">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="J40" s="38">
+        <v>114.3</v>
+      </c>
+      <c r="K40" s="38">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38">
+        <v>121.7</v>
+      </c>
+      <c r="K41" s="38">
         <v>114.8</v>
       </c>
-      <c r="H29" s="58">
-        <v>92</v>
-      </c>
-      <c r="I29" s="58">
-        <v>119.9</v>
-      </c>
-      <c r="J29" s="58">
-        <v>112.1</v>
-      </c>
-      <c r="K29" s="58">
-        <v>105.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58">
-        <v>110.7</v>
-      </c>
-      <c r="E30" s="58">
-        <v>107.7</v>
-      </c>
-      <c r="F30" s="58">
-        <v>102.1</v>
-      </c>
-      <c r="G30" s="58">
-        <v>116.2</v>
-      </c>
-      <c r="H30" s="58">
-        <v>96.3</v>
-      </c>
-      <c r="I30" s="58">
-        <v>126</v>
-      </c>
-      <c r="J30" s="58">
-        <v>96.8</v>
-      </c>
-      <c r="K30" s="58">
-        <v>107.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="58">
-        <v>107.6</v>
-      </c>
-      <c r="C31" s="58">
-        <v>96.1</v>
-      </c>
-      <c r="D31" s="58">
-        <v>110.9</v>
-      </c>
-      <c r="E31" s="58">
-        <v>109</v>
-      </c>
-      <c r="F31" s="58">
-        <v>109</v>
-      </c>
-      <c r="G31" s="58">
-        <v>116.5</v>
-      </c>
-      <c r="H31" s="58">
-        <v>103.3</v>
-      </c>
-      <c r="I31" s="58">
-        <v>130.19999999999999</v>
-      </c>
-      <c r="J31" s="58">
-        <v>96.1</v>
-      </c>
-      <c r="K31" s="58">
-        <v>107.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58">
-        <v>110.5</v>
-      </c>
-      <c r="E32" s="58">
-        <v>108.8</v>
-      </c>
-      <c r="F32" s="58">
-        <v>117.9</v>
-      </c>
-      <c r="G32" s="58">
-        <v>117.1</v>
-      </c>
-      <c r="H32" s="58">
-        <v>109.2</v>
-      </c>
-      <c r="I32" s="58">
-        <v>137</v>
-      </c>
-      <c r="J32" s="58">
-        <v>104.9</v>
-      </c>
-      <c r="K32" s="58">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58">
-        <v>111.2</v>
-      </c>
-      <c r="E33" s="58">
-        <v>109.1</v>
-      </c>
-      <c r="F33" s="58">
-        <v>117.1</v>
-      </c>
-      <c r="G33" s="58">
-        <v>119.2</v>
-      </c>
-      <c r="H33" s="58">
-        <v>113.7</v>
-      </c>
-      <c r="I33" s="58">
-        <v>139.9</v>
-      </c>
-      <c r="J33" s="58">
-        <v>116.5</v>
-      </c>
-      <c r="K33" s="58">
-        <v>109.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58">
-        <v>111.4</v>
-      </c>
-      <c r="E34" s="58">
-        <v>109</v>
-      </c>
-      <c r="F34" s="58">
-        <v>119.7</v>
-      </c>
-      <c r="G34" s="58">
-        <v>119.4</v>
-      </c>
-      <c r="H34" s="58">
-        <v>118.4</v>
-      </c>
-      <c r="I34" s="58">
-        <v>145.5</v>
-      </c>
-      <c r="J34" s="58">
-        <v>104.8</v>
-      </c>
-      <c r="K34" s="58">
-        <v>109.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58">
-        <v>111.8</v>
-      </c>
-      <c r="E35" s="58">
-        <v>110.6</v>
-      </c>
-      <c r="F35" s="58">
-        <v>123.7</v>
-      </c>
-      <c r="G35" s="58">
-        <v>119.3</v>
-      </c>
-      <c r="H35" s="58">
-        <v>126.3</v>
-      </c>
-      <c r="I35" s="58">
-        <v>141.30000000000001</v>
-      </c>
-      <c r="J35" s="58">
-        <v>109</v>
-      </c>
-      <c r="K35" s="58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58">
-        <v>112.8</v>
-      </c>
-      <c r="E36" s="58">
-        <v>111.9</v>
-      </c>
-      <c r="F36" s="58">
-        <v>129.5</v>
-      </c>
-      <c r="G36" s="58">
-        <v>119.9</v>
-      </c>
-      <c r="H36" s="58">
-        <v>137.5</v>
-      </c>
-      <c r="I36" s="58">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="J36" s="58">
-        <v>109.2</v>
-      </c>
-      <c r="K36" s="58">
-        <v>110.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58">
-        <v>113.9</v>
-      </c>
-      <c r="E37" s="58">
-        <v>112.2</v>
-      </c>
-      <c r="F37" s="58">
-        <v>127.3</v>
-      </c>
-      <c r="G37" s="58">
-        <v>120.6</v>
-      </c>
-      <c r="H37" s="58">
-        <v>147.30000000000001</v>
-      </c>
-      <c r="I37" s="58">
-        <v>144</v>
-      </c>
-      <c r="J37" s="58">
-        <v>113.7</v>
-      </c>
-      <c r="K37" s="58">
-        <v>110.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58">
-        <v>115</v>
-      </c>
-      <c r="E38" s="58">
-        <v>114</v>
-      </c>
-      <c r="F38" s="58">
-        <v>132.30000000000001</v>
-      </c>
-      <c r="G38" s="58">
-        <v>120.8</v>
-      </c>
-      <c r="H38" s="58">
-        <v>150</v>
-      </c>
-      <c r="I38" s="58">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="J38" s="58">
-        <v>112.2</v>
-      </c>
-      <c r="K38" s="58">
-        <v>111.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58">
-        <v>115.8</v>
-      </c>
-      <c r="E39" s="58">
-        <v>117.2</v>
-      </c>
-      <c r="F39" s="58">
-        <v>147.19999999999999</v>
-      </c>
-      <c r="G39" s="58">
-        <v>121</v>
-      </c>
-      <c r="H39" s="58">
-        <v>148.1</v>
-      </c>
-      <c r="I39" s="58">
-        <v>153.5</v>
-      </c>
-      <c r="J39" s="58">
-        <v>122.2</v>
-      </c>
-      <c r="K39" s="58">
-        <v>112.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58">
-        <v>116.3</v>
-      </c>
-      <c r="E40" s="58">
-        <v>120</v>
-      </c>
-      <c r="F40" s="58">
-        <v>149.6</v>
-      </c>
-      <c r="G40" s="58">
-        <v>121.8</v>
-      </c>
-      <c r="H40" s="58">
-        <v>145.9</v>
-      </c>
-      <c r="I40" s="58">
-        <v>158.69999999999999</v>
-      </c>
-      <c r="J40" s="58">
-        <v>114.3</v>
-      </c>
-      <c r="K40" s="58">
-        <v>113.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58">
-        <v>121.7</v>
-      </c>
-      <c r="K41" s="58">
-        <v>114.8</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6116,6 +6343,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6128,18 +6358,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6147,13 +6377,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -6163,81 +6393,81 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6245,10 +6475,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6">
         <v>107.4</v>
       </c>
@@ -6278,8 +6508,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7">
         <v>110.4</v>
       </c>
@@ -6309,8 +6539,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8">
         <v>109.5</v>
       </c>
@@ -6340,8 +6570,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9">
         <v>109.6</v>
       </c>
@@ -6371,8 +6601,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10">
         <v>108.6</v>
       </c>
@@ -6402,8 +6632,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11">
         <v>107.4</v>
       </c>
@@ -6433,8 +6663,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12">
         <v>107</v>
       </c>
@@ -6464,8 +6694,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <v>107.8</v>
       </c>
@@ -6495,8 +6725,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14">
         <v>108.4</v>
       </c>
@@ -6526,8 +6756,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15">
         <v>107.6</v>
       </c>
@@ -6557,8 +6787,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16">
         <v>107.6</v>
       </c>
@@ -6588,8 +6818,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17">
         <v>107.4</v>
       </c>
@@ -6619,8 +6849,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18">
         <v>106.6</v>
       </c>
@@ -6650,8 +6880,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19">
         <v>104.3</v>
       </c>
@@ -6681,10 +6911,10 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>2</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="25"/>
       <c r="D20">
         <v>105.8</v>
       </c>
@@ -6714,8 +6944,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21">
         <v>105.4</v>
       </c>
@@ -6745,8 +6975,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22">
         <v>104.3</v>
       </c>
@@ -6776,8 +7006,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23">
         <v>104.8</v>
       </c>
@@ -6807,8 +7037,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24">
         <v>104</v>
       </c>
@@ -6838,8 +7068,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25">
         <v>103.4</v>
       </c>
@@ -6869,8 +7099,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26">
         <v>104</v>
       </c>
@@ -6900,8 +7130,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27">
         <v>103.6</v>
       </c>
@@ -6931,8 +7161,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28">
         <v>102.8</v>
       </c>
@@ -6962,8 +7192,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29">
         <v>103</v>
       </c>
@@ -6993,8 +7223,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30">
         <v>102.1</v>
       </c>
@@ -7024,8 +7254,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31">
         <v>102.5</v>
       </c>
@@ -7055,8 +7285,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32">
         <v>100.2</v>
       </c>
@@ -7086,8 +7316,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33">
         <v>100.1</v>
       </c>
@@ -7117,8 +7347,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34">
         <v>100.6</v>
       </c>
@@ -7148,8 +7378,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35">
         <v>101</v>
       </c>
@@ -7179,8 +7409,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36">
         <v>102.5</v>
       </c>
@@ -7210,8 +7440,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37">
         <v>103.7</v>
       </c>
@@ -7241,8 +7471,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38">
         <v>103.8</v>
       </c>
@@ -7272,8 +7502,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39">
         <v>105</v>
       </c>
@@ -7303,8 +7533,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40">
         <v>105.6</v>
       </c>
@@ -7334,8 +7564,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="J41">
         <v>108.5</v>
       </c>
@@ -7347,97 +7577,97 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7467,6 +7697,7 @@
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7480,18 +7711,18 @@
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="13"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7499,13 +7730,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -7515,81 +7746,81 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7597,10 +7828,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6">
         <v>101.5</v>
       </c>
@@ -7630,8 +7861,8 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7">
         <v>102.1</v>
       </c>
@@ -7661,8 +7892,8 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8">
         <v>100.4</v>
       </c>
@@ -7692,8 +7923,8 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9">
         <v>101.1</v>
       </c>
@@ -7723,8 +7954,8 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10">
         <v>100.8</v>
       </c>
@@ -7754,8 +7985,8 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11">
         <v>99.6</v>
       </c>
@@ -7785,8 +8016,8 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12">
         <v>100.2</v>
       </c>
@@ -7816,8 +8047,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <v>100.5</v>
       </c>
@@ -7847,8 +8078,8 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14">
         <v>100.3</v>
       </c>
@@ -7878,8 +8109,8 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15">
         <v>100</v>
       </c>
@@ -7909,8 +8140,8 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16">
         <v>100.6</v>
       </c>
@@ -7940,8 +8171,8 @@
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17">
         <v>100.3</v>
       </c>
@@ -7971,8 +8202,8 @@
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18">
         <v>100.7</v>
       </c>
@@ -8002,8 +8233,8 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19">
         <v>99.8</v>
       </c>
@@ -8033,8 +8264,8 @@
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20">
         <v>101.9</v>
       </c>
@@ -8064,8 +8295,8 @@
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21">
         <v>100.7</v>
       </c>
@@ -8095,8 +8326,8 @@
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22">
         <v>99.7</v>
       </c>
@@ -8126,8 +8357,8 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23">
         <v>100</v>
       </c>
@@ -8157,8 +8388,8 @@
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24">
         <v>99.5</v>
       </c>
@@ -8188,8 +8419,8 @@
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25">
         <v>99.9</v>
       </c>
@@ -8219,8 +8450,8 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26">
         <v>100.9</v>
       </c>
@@ -8250,8 +8481,8 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27">
         <v>99.6</v>
       </c>
@@ -8281,8 +8512,8 @@
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28">
         <v>99.8</v>
       </c>
@@ -8312,8 +8543,8 @@
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29">
         <v>100.5</v>
       </c>
@@ -8343,8 +8574,8 @@
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30">
         <v>99.8</v>
       </c>
@@ -8374,8 +8605,8 @@
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31">
         <v>100.2</v>
       </c>
@@ -8405,8 +8636,8 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32">
         <v>99.6</v>
       </c>
@@ -8436,8 +8667,8 @@
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33">
         <v>100.6</v>
       </c>
@@ -8467,8 +8698,8 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34">
         <v>100.2</v>
       </c>
@@ -8498,8 +8729,8 @@
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35">
         <v>100.4</v>
       </c>
@@ -8529,8 +8760,8 @@
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36">
         <v>100.9</v>
       </c>
@@ -8560,8 +8791,8 @@
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37">
         <v>101</v>
       </c>
@@ -8591,8 +8822,8 @@
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38">
         <v>101</v>
       </c>
@@ -8622,8 +8853,8 @@
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39">
         <v>100.7</v>
       </c>
@@ -8653,8 +8884,8 @@
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40">
         <v>100.4</v>
       </c>
@@ -8684,8 +8915,8 @@
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="J41">
         <v>106.5</v>
       </c>
@@ -8697,97 +8928,97 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
@@ -8818,9 +9049,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE15069-F06E-48B6-9936-A3B302027FFD}">
   <dimension ref="A10:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:T27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8938,164 +9170,164 @@
         <v>2</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
     </row>
     <row r="30" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9104,41 +9336,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CD0939-C14E-46F0-AAF5-BF598DB2A711}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/wskazniki.xlsx
+++ b/wskazniki.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\gu-schedule-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACB4A0-E120-4B9D-810B-BC32A6668EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A194CA-BDD8-4858-BFBC-8F88C0B5DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94470" yWindow="10275" windowWidth="24900" windowHeight="4080" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
-    <workbookView xWindow="-85035" yWindow="11130" windowWidth="24900" windowHeight="10470" xr2:uid="{5320CA9D-AB11-4DAD-91D5-03A7A0950971}"/>
+    <workbookView xWindow="51480" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E927E6C3-C48C-49A2-99A6-52F98E480390}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="51840" windowHeight="21390" xr2:uid="{5320CA9D-AB11-4DAD-91D5-03A7A0950971}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczydło" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -439,8 +439,8 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??????_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??????_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1017,6 +1017,50 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1052,50 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2180,11 +2180,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="H23" sqref="H23:I23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,11 +2218,8 @@
         <v>95</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="69" t="str">
-        <f>sheetName</f>
-        <v>Table1</v>
-      </c>
-      <c r="M2" s="68" t="s">
+      <c r="H2" s="57"/>
+      <c r="M2" s="56" t="s">
         <v>117</v>
       </c>
       <c r="T2" s="21" t="s">
@@ -2233,7 +2230,7 @@
       <c r="C3" s="19"/>
       <c r="D3" s="29"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="70"/>
+      <c r="H3" s="58"/>
       <c r="M3" t="s">
         <v>112</v>
       </c>
@@ -2248,17 +2245,14 @@
       <c r="D4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="71" t="str">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),1)</f>
-        <v>2020 VIII</v>
-      </c>
+      <c r="H4" s="59"/>
       <c r="M4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D5" s="29"/>
-      <c r="H5" s="72"/>
+      <c r="H5" s="60"/>
       <c r="M5" t="s">
         <v>114</v>
       </c>
@@ -2270,10 +2264,7 @@
       <c r="D6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="71" t="str">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),1)</f>
-        <v>2021 VIII</v>
-      </c>
+      <c r="H6" s="59"/>
       <c r="M6" t="s">
         <v>115</v>
       </c>
@@ -2285,7 +2276,7 @@
       <c r="C8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="42">
         <v>10000000</v>
       </c>
       <c r="H8" s="22"/>
@@ -2297,9 +2288,9 @@
       <c r="C10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="61">
         <f ca="1">D8*L24</f>
-        <v>11013248.785854287</v>
+        <v>11037075.752644006</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -2330,93 +2321,93 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="51">
         <v>15</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H16" s="40">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),2)</f>
-        <v>109.9</v>
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),11)</f>
+        <v>105.2</v>
       </c>
       <c r="I16" s="40">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),2)</f>
-        <v>113.9</v>
-      </c>
-      <c r="J16" s="59">
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),11)</f>
+        <v>110.7</v>
+      </c>
+      <c r="J16" s="47">
         <f ca="1">IF(TRIM(G16)&lt;&gt;"",I16/H16*100,"")</f>
-        <v>103.63967242948135</v>
-      </c>
-      <c r="K16" s="59">
+        <v>105.22813688212929</v>
+      </c>
+      <c r="K16" s="47">
         <f ca="1">IF(J16&lt;&gt;"",J16*(F16/100),"")</f>
-        <v>15.545950864422203</v>
-      </c>
-      <c r="L16" s="61">
+        <v>15.784220532319393</v>
+      </c>
+      <c r="L16" s="49">
         <f ca="1">IF(K16&lt;&gt;"",K16/100,"")</f>
-        <v>0.15545950864422203</v>
+        <v>0.15784220532319393</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="51">
         <v>6</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H17" s="40">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),3)</f>
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),10)</f>
         <v>107.2</v>
       </c>
       <c r="I17" s="40">
-        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),3)</f>
+        <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),10)</f>
         <v>113.7</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="47">
         <f t="shared" ref="J17:J23" ca="1" si="0">IF(TRIM(G17)&lt;&gt;"",I17/H17*100,"")</f>
         <v>106.06343283582089</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="47">
         <f t="shared" ref="K17:K23" ca="1" si="1">IF(J17&lt;&gt;"",J17*(F17/100),"")</f>
         <v>6.3638059701492535</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="49">
         <f t="shared" ref="L17:L23" ca="1" si="2">IF(K17&lt;&gt;"",K17/100,"")</f>
         <v>6.3638059701492541E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="51">
         <v>13</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H18" s="40">
@@ -2427,27 +2418,27 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),4)</f>
         <v>113.9</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>103.63967242948135</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>13.473157415832576</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18" s="49">
         <f t="shared" ca="1" si="2"/>
         <v>0.13473157415832576</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="67" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="40">
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStart,Table1[nr wskaźnika],0),5)</f>
         <v>106</v>
@@ -2456,33 +2447,33 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),5)</f>
         <v>112.2</v>
       </c>
-      <c r="J19" s="59" t="str">
+      <c r="J19" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="59" t="str">
+      <c r="K19" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L19" s="61" t="str">
+      <c r="L19" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="51">
         <v>4</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H20" s="40">
@@ -2493,33 +2484,33 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),6)</f>
         <v>127.3</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>140.19823788546256</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>5.6079295154185029</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="49">
         <f t="shared" ca="1" si="2"/>
         <v>5.6079295154185027E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="51">
         <v>1</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="40">
@@ -2530,33 +2521,33 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),7)</f>
         <v>120.6</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>104.59670424978317</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>1.0459670424978318</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="49">
         <f t="shared" ca="1" si="2"/>
         <v>1.0459670424978317E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="51">
         <v>9</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H22" s="40">
@@ -2567,33 +2558,33 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),8)</f>
         <v>147.30000000000001</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>171.67832167832168</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>15.45104895104895</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="49">
         <f t="shared" ca="1" si="2"/>
         <v>0.15451048951048951</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="51">
         <v>2</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H23" s="40">
@@ -2604,56 +2595,56 @@
         <f ca="1">INDEX(INDIRECT(sheetName),MATCH(yearMonthStop,Table1[nr wskaźnika],0),9)</f>
         <v>144</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>132.2314049586777</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>2.6446280991735542</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="49">
         <f t="shared" ca="1" si="2"/>
         <v>2.6446280991735543E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="52">
         <v>50</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="62">
+      <c r="K24" s="45"/>
+      <c r="L24" s="50">
         <f ca="1">SUM(L16:L23)+(F24/100)</f>
-        <v>1.1013248785854288</v>
+        <v>1.1037075752644006</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="65">
+      <c r="F25" s="53">
         <f>SUM(F16:F24)</f>
         <v>100</v>
       </c>
-      <c r="L25" s="58"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="68" t="str">
+      <c r="C30" s="48"/>
+      <c r="D30" s="56" t="str">
         <f>sheetName</f>
         <v>Table1</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="str" cm="1">
@@ -4883,11 +4874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF672A4E-7C03-430D-A0EE-15A06E60C8E0}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,13 +4918,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
@@ -4943,48 +4934,48 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="68" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -6360,16 +6351,16 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6377,13 +6368,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -6393,48 +6384,48 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="68" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -7715,14 +7706,14 @@
       <c r="C1" s="24"/>
       <c r="D1" s="13"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7730,13 +7721,13 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10" t="s">
         <v>3</v>
@@ -7746,48 +7737,48 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9170,164 +9161,164 @@
         <v>2</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
     </row>
     <row r="30" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
